--- a/LP-Ergebnisse-Normal.xlsx
+++ b/LP-Ergebnisse-Normal.xlsx
@@ -8,13 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\IdeaProjects\F\Frezze_Tag_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C922E9F-3EB3-421C-862C-20B00FA108A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3D9CC3-C297-4549-BDF8-73C660F05EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ergebnisse" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Ergebnisse!$I$2:$I$181</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Ergebnisse!$J$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Ergebnisse!$J$2:$J$181</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Ergebnisse!$K$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Ergebnisse!$K$2:$K$181</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Ergebnisse!$L$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Ergebnisse!$L$2:$L$181</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -114,6 +123,838 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Verglich FTP-Algorithmen in LP - Normaldaten</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:rPr>
+            <a:t>Vergleich FTP-Algorithmen in LP - Normaldaten</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{8AAA16AE-AC00-45D8-A34D-4C39A9DEF9F8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>best_next_aktive_robot</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{9A7B6197-1C2E-4693-866C-BA5263A6442E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:v>on_roboter_permutation</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{A7F445F4-43CA-4E2F-8D77-07892C6CB4C8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:v>greedy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Anzahl Roboter</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:rPr>
+                <a:t>Anzahl Roboter</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Approximationsfaktor</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>384175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Diagramm 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9446E63E-9470-831A-E379-965A60D7A66C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3736975" y="587375"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,7 +1277,7 @@
   <dimension ref="A1:L181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="L1" activeCellId="3" sqref="I1:I1048576 J1:J1048576 K1:K1048576 L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7318,5 +8159,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/LP-Ergebnisse-Normal.xlsx
+++ b/LP-Ergebnisse-Normal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\IdeaProjects\F\Frezze_Tag_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C93743-BCF3-4ED8-A6AF-7FB335955D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B2AAEF-79E6-471F-B91B-1C0E5C5ECA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,25 +18,11 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Ergebnisse!$H$2:$H$451</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Ergebnisse!$I$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Ergebnisse!$J$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Ergebnisse!$J$2:$J$451</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Ergebnisse!$K$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Ergebnisse!$K$2:$K$451</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Ergebnisse!$H$2:$H$451</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Ergebnisse!$I$1</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Ergebnisse!$I$2:$I$451</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Ergebnisse!$J$1</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Ergebnisse!$J$2:$J$451</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Ergebnisse!$K$1</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Ergebnisse!$I$2:$I$451</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Ergebnisse!$K$2:$K$451</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Ergebnisse!$J$1</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Ergebnisse!$J$2:$J$451</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Ergebnisse!$K$1</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Ergebnisse!$K$2:$K$451</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Ergebnisse!$H$2:$H$451</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Ergebnisse!$I$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Ergebnisse!$I$2:$I$451</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -903,9 +889,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>288925</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
@@ -947,8 +933,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5775325" y="638175"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5708650" y="463550"/>
+              <a:ext cx="4638675" cy="2917825"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>

--- a/LP-Ergebnisse-Normal.xlsx
+++ b/LP-Ergebnisse-Normal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\IdeaProjects\F\Frezze_Tag_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B2AAEF-79E6-471F-B91B-1C0E5C5ECA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D9564C-0A48-4938-9A6F-61F01FA57C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>Experiment</t>
   </si>
@@ -61,15 +61,40 @@
   <si>
     <t>greedy</t>
   </si>
+  <si>
+    <t>b_n</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Varianz</t>
+  </si>
+  <si>
+    <t>o_r</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,8 +120,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -888,16 +914,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>593725</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -933,7 +959,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5708650" y="463550"/>
+              <a:off x="857250" y="749300"/>
               <a:ext cx="4638675" cy="2917825"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1284,15 +1310,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K451"/>
+  <dimension ref="A1:X451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1323,8 +1349,23 @@
       <c r="K1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1358,8 +1399,23 @@
         <f>F2/C2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <f>AVERAGE(I2:I51)</f>
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f>MAX(I2:I51)</f>
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <f>VARA(I2:I51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1393,8 +1449,23 @@
         <f t="shared" ref="K3:K66" si="2">F3/C3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <f>AVERAGE(I52:I101)</f>
+        <v>1.1253015766666581</v>
+      </c>
+      <c r="P3">
+        <f>MAX(I52:I101)</f>
+        <v>1.5673758865248226</v>
+      </c>
+      <c r="Q3">
+        <f>VARA(I52:I101)</f>
+        <v>3.3874652047908328E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1428,8 +1499,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <f>AVERAGE(I102:I151)</f>
+        <v>1.1123107829393182</v>
+      </c>
+      <c r="P4">
+        <f>MAX(I102:I151)</f>
+        <v>1.6695652173913043</v>
+      </c>
+      <c r="Q4">
+        <f>VARA(I102:I151)</f>
+        <v>2.9770701551374762E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1463,8 +1549,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N5">
+        <f>N4+1</f>
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <f>AVERAGE(I152:I201)</f>
+        <v>1.1532150455251209</v>
+      </c>
+      <c r="P5">
+        <f>MAX(I152:I201)</f>
+        <v>1.6031746031746033</v>
+      </c>
+      <c r="Q5">
+        <f>VARA(I152:I201)</f>
+        <v>3.0594026920322721E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1498,8 +1600,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N6">
+        <f t="shared" ref="N6:N10" si="3">N5+1</f>
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <f>AVERAGE(I202:I251)</f>
+        <v>1.1972541083547183</v>
+      </c>
+      <c r="P6">
+        <f>MAX(I202:I251)</f>
+        <v>1.5930232558139534</v>
+      </c>
+      <c r="Q6">
+        <f>VARA(I202:I251)</f>
+        <v>3.5655739728881031E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1533,8 +1651,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="O7">
+        <f>AVERAGE(I252:I301)</f>
+        <v>1.2541479286604507</v>
+      </c>
+      <c r="P7">
+        <f>MAX(I252:I301)</f>
+        <v>1.8734939759036144</v>
+      </c>
+      <c r="Q7">
+        <f>VARA(I252:I301)</f>
+        <v>4.0551230974405515E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1568,8 +1702,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="O8">
+        <f>AVERAGE(I302:I351)</f>
+        <v>1.2532613508431725</v>
+      </c>
+      <c r="P8">
+        <f>MAX(I302:I351)</f>
+        <v>1.7794117647058822</v>
+      </c>
+      <c r="Q8">
+        <f>VARA(I302:I351)</f>
+        <v>4.6795753210514532E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1603,8 +1753,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <f>AVERAGE(I352:I401)</f>
+        <v>1.2509888821456778</v>
+      </c>
+      <c r="P9">
+        <f>MAX(I352:I401)</f>
+        <v>1.8863636363636365</v>
+      </c>
+      <c r="Q9">
+        <f>VARA(I352:I401)</f>
+        <v>3.8625134487374722E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1638,8 +1804,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="O10">
+        <f>AVERAGE(I402:I451)</f>
+        <v>1.3039336416121188</v>
+      </c>
+      <c r="P10">
+        <f>MAX(I402:I451)</f>
+        <v>1.8895027624309393</v>
+      </c>
+      <c r="Q10">
+        <f>VARA(I402:I451)</f>
+        <v>3.9861302142305842E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1674,7 +1856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1709,7 +1891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1743,8 +1925,38 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" t="s">
+        <v>11</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V13" t="s">
+        <v>7</v>
+      </c>
+      <c r="W13" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1778,8 +1990,38 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <f>AVERAGE(J2:J51)</f>
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <f>MAX(J2:J51)</f>
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <f>VARA(J2:J51)</f>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <f>AVERAGE(K2:K51)</f>
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <f>MAX(Q2:Q51)</f>
+        <v>6.6495090482454763E-2</v>
+      </c>
+      <c r="X14">
+        <f>VARA(Q2:Q51)</f>
+        <v>4.1190307580656174E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1813,8 +2055,38 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <f>AVERAGE(J52:J101)</f>
+        <v>1.0345836202071492</v>
+      </c>
+      <c r="P15">
+        <f>MAX(J52:J101)</f>
+        <v>1.5588235294117647</v>
+      </c>
+      <c r="Q15">
+        <f>VARA(J52:J101)</f>
+        <v>9.8776129713583367E-3</v>
+      </c>
+      <c r="U15">
+        <v>4</v>
+      </c>
+      <c r="V15">
+        <f>AVERAGE(K52:K101)</f>
+        <v>1.0345836202071492</v>
+      </c>
+      <c r="W15">
+        <f>MAX(K52:K101)</f>
+        <v>1.5588235294117647</v>
+      </c>
+      <c r="X15">
+        <f>VARA(K52:K101)</f>
+        <v>9.8776129713583367E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1848,8 +2120,38 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <f>AVERAGE(J102:J151)</f>
+        <v>1.1620491254488754</v>
+      </c>
+      <c r="P16">
+        <f>MAX(J102:J151)</f>
+        <v>1.8617021276595744</v>
+      </c>
+      <c r="Q16">
+        <f>VARA(J102:J151)</f>
+        <v>5.1195304689522506E-2</v>
+      </c>
+      <c r="U16">
+        <v>5</v>
+      </c>
+      <c r="V16">
+        <f>AVERAGE(K102:K151)</f>
+        <v>1.2756623897827959</v>
+      </c>
+      <c r="W16">
+        <f>MAX(K102:K151)</f>
+        <v>2.1166666666666667</v>
+      </c>
+      <c r="X16">
+        <f>VARA(K102:K151)</f>
+        <v>6.9804512216832079E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1883,8 +2185,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N17">
+        <f>N16+1</f>
+        <v>6</v>
+      </c>
+      <c r="O17">
+        <f>AVERAGE(J152:J201)</f>
+        <v>1.2920760647388461</v>
+      </c>
+      <c r="P17">
+        <f>MAX(I164:I213)</f>
+        <v>1.6031746031746033</v>
+      </c>
+      <c r="Q17">
+        <f>VARA(I164:I213)</f>
+        <v>3.181755247286458E-2</v>
+      </c>
+      <c r="U17">
+        <f>U16+1</f>
+        <v>6</v>
+      </c>
+      <c r="V17">
+        <f>AVERAGE(K152:K201)</f>
+        <v>1.3084008417780213</v>
+      </c>
+      <c r="W17">
+        <f>MAX(K164:K213)</f>
+        <v>1.9111111111111112</v>
+      </c>
+      <c r="X17">
+        <f>VARA(K164:K213)</f>
+        <v>5.0608081936134135E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1918,8 +2252,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N18">
+        <f t="shared" ref="N18:N22" si="4">N17+1</f>
+        <v>7</v>
+      </c>
+      <c r="O18">
+        <f>AVERAGE(I214:I263)</f>
+        <v>1.2056701545733632</v>
+      </c>
+      <c r="P18">
+        <f>MAX(J152:J201)</f>
+        <v>1.8992248062015504</v>
+      </c>
+      <c r="Q18">
+        <f>VARA(J152:J201)</f>
+        <v>4.9120842428075254E-2</v>
+      </c>
+      <c r="U18">
+        <f t="shared" ref="U18:U22" si="5">U17+1</f>
+        <v>7</v>
+      </c>
+      <c r="V18">
+        <f>AVERAGE(K214:K263)</f>
+        <v>1.2530941758193468</v>
+      </c>
+      <c r="W18">
+        <f>MAX(K152:K201)</f>
+        <v>1.9111111111111112</v>
+      </c>
+      <c r="X18">
+        <f>VARA(K152:K201)</f>
+        <v>5.5467828454080388E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1953,8 +2319,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N19">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="O19">
+        <f>AVERAGE(J252:J301)</f>
+        <v>1.2680737250486622</v>
+      </c>
+      <c r="P19">
+        <f>MAX(J252:J301)</f>
+        <v>1.9767441860465116</v>
+      </c>
+      <c r="Q19">
+        <f>VARA(J252:J301)</f>
+        <v>5.3102281183431403E-2</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="V19">
+        <f>AVERAGE(K252:K301)</f>
+        <v>1.2650379193938668</v>
+      </c>
+      <c r="W19">
+        <f>MAX(K252:K301)</f>
+        <v>1.9767441860465116</v>
+      </c>
+      <c r="X19">
+        <f>VARA(K252:K301)</f>
+        <v>5.5548437574390222E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1988,8 +2386,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="O20">
+        <f>AVERAGE(J302:J351)</f>
+        <v>1.3100843592934559</v>
+      </c>
+      <c r="P20">
+        <f>MAX(J302:J351)</f>
+        <v>1.8024691358024691</v>
+      </c>
+      <c r="Q20">
+        <f>VARA(J302:J351)</f>
+        <v>4.8588113214036034E-2</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="V20">
+        <f>AVERAGE(K302:K351)</f>
+        <v>1.3922911872359816</v>
+      </c>
+      <c r="W20">
+        <f>MAX(K302:K351)</f>
+        <v>2.0072463768115942</v>
+      </c>
+      <c r="X20">
+        <f>VARA(K302:K351)</f>
+        <v>6.0204227339159283E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2023,8 +2453,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N21">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="O21">
+        <f>AVERAGE(J352:J401)</f>
+        <v>1.4263315495621154</v>
+      </c>
+      <c r="P21">
+        <f>MAX(J352:J401)</f>
+        <v>2.0458715596330275</v>
+      </c>
+      <c r="Q21">
+        <f>VARA(J352:J401)</f>
+        <v>6.4639199642249248E-2</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="V21">
+        <f>AVERAGE(K352:K401)</f>
+        <v>1.5604344181472871</v>
+      </c>
+      <c r="W21">
+        <f>MAX(K352:K401)</f>
+        <v>2.290909090909091</v>
+      </c>
+      <c r="X21">
+        <f>VARA(K352:K401)</f>
+        <v>8.9036424614305332E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2058,8 +2520,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="O22">
+        <f>AVERAGE(J402:J450)</f>
+        <v>1.6081779756387971</v>
+      </c>
+      <c r="P22">
+        <f>MAX(J402:J450)</f>
+        <v>2.2260869565217392</v>
+      </c>
+      <c r="Q22">
+        <f>VARA(J402:J450)</f>
+        <v>6.6495090482454763E-2</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="V22">
+        <f>AVERAGE(K402:K450)</f>
+        <v>1.6385995844471257</v>
+      </c>
+      <c r="W22">
+        <f>MAX(K402:K450)</f>
+        <v>2.2018348623853212</v>
+      </c>
+      <c r="X22">
+        <f>VARA(K402:K450)</f>
+        <v>6.8401682653262227E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2094,7 +2588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2129,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2164,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2199,7 +2693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2234,7 +2728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2269,7 +2763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2304,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2339,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2374,7 +2868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3622,15 +4116,15 @@
         <v>4</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I130" si="3">D67/C67</f>
+        <f t="shared" ref="I67:I130" si="6">D67/C67</f>
         <v>1.5153846153846153</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J130" si="4">E67/C67</f>
+        <f t="shared" ref="J67:J130" si="7">E67/C67</f>
         <v>1.0769230769230769</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K130" si="5">F67/C67</f>
+        <f t="shared" ref="K67:K130" si="8">F67/C67</f>
         <v>1.0769230769230769</v>
       </c>
     </row>
@@ -3657,15 +4151,15 @@
         <v>4</v>
       </c>
       <c r="I68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3692,15 +4186,15 @@
         <v>4</v>
       </c>
       <c r="I69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3727,15 +4221,15 @@
         <v>4</v>
       </c>
       <c r="I70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3875598086124401</v>
       </c>
       <c r="J70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1004784688995215</v>
       </c>
       <c r="K70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1004784688995215</v>
       </c>
     </row>
@@ -3762,15 +4256,15 @@
         <v>4</v>
       </c>
       <c r="I71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3797,15 +4291,15 @@
         <v>4</v>
       </c>
       <c r="I72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4210526315789473</v>
       </c>
       <c r="J72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3832,15 +4326,15 @@
         <v>4</v>
       </c>
       <c r="I73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2409638554216869</v>
       </c>
       <c r="J73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3867,15 +4361,15 @@
         <v>4</v>
       </c>
       <c r="I74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3902,15 +4396,15 @@
         <v>4</v>
       </c>
       <c r="I75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3937,15 +4431,15 @@
         <v>4</v>
       </c>
       <c r="I76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3655913978494623</v>
       </c>
       <c r="J76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3972,15 +4466,15 @@
         <v>4</v>
       </c>
       <c r="I77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4007,15 +4501,15 @@
         <v>4</v>
       </c>
       <c r="I78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1507936507936507</v>
       </c>
       <c r="J78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0079365079365079</v>
       </c>
       <c r="K78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0079365079365079</v>
       </c>
     </row>
@@ -4042,15 +4536,15 @@
         <v>4</v>
       </c>
       <c r="I79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4077,15 +4571,15 @@
         <v>4</v>
       </c>
       <c r="I80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4123711340206186</v>
       </c>
       <c r="J80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4112,15 +4606,15 @@
         <v>4</v>
       </c>
       <c r="I81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5588235294117647</v>
       </c>
       <c r="J81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.5588235294117647</v>
       </c>
       <c r="K81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5588235294117647</v>
       </c>
     </row>
@@ -4147,15 +4641,15 @@
         <v>4</v>
       </c>
       <c r="I82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5673758865248226</v>
       </c>
       <c r="J82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4182,15 +4676,15 @@
         <v>4</v>
       </c>
       <c r="I83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4217,15 +4711,15 @@
         <v>4</v>
       </c>
       <c r="I84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4252,15 +4746,15 @@
         <v>4</v>
       </c>
       <c r="I85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1583333333333334</v>
       </c>
       <c r="J85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4287,15 +4781,15 @@
         <v>4</v>
       </c>
       <c r="I86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0063694267515924</v>
       </c>
       <c r="J86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0063694267515924</v>
       </c>
       <c r="K86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0063694267515924</v>
       </c>
     </row>
@@ -4322,15 +4816,15 @@
         <v>4</v>
       </c>
       <c r="I87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4357,15 +4851,15 @@
         <v>4</v>
       </c>
       <c r="I88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4392,15 +4886,15 @@
         <v>4</v>
       </c>
       <c r="I89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4427,15 +4921,15 @@
         <v>4</v>
       </c>
       <c r="I90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0975609756097562</v>
       </c>
       <c r="J90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0914634146341464</v>
       </c>
       <c r="K90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0914634146341464</v>
       </c>
     </row>
@@ -4462,15 +4956,15 @@
         <v>4</v>
       </c>
       <c r="I91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4166666666666667</v>
       </c>
       <c r="J91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0833333333333333</v>
       </c>
       <c r="K91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0833333333333333</v>
       </c>
     </row>
@@ -4497,15 +4991,15 @@
         <v>4</v>
       </c>
       <c r="I92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4532,15 +5026,15 @@
         <v>4</v>
       </c>
       <c r="I93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.01840490797546</v>
       </c>
       <c r="J93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.01840490797546</v>
       </c>
       <c r="K93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.01840490797546</v>
       </c>
     </row>
@@ -4567,15 +5061,15 @@
         <v>4</v>
       </c>
       <c r="I94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3577586206896552</v>
       </c>
       <c r="J94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0387931034482758</v>
       </c>
       <c r="K94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0387931034482758</v>
       </c>
     </row>
@@ -4602,15 +5096,15 @@
         <v>4</v>
       </c>
       <c r="I95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2210526315789474</v>
       </c>
       <c r="J95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1578947368421053</v>
       </c>
       <c r="K95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1578947368421053</v>
       </c>
     </row>
@@ -4637,15 +5131,15 @@
         <v>4</v>
       </c>
       <c r="I96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4672,15 +5166,15 @@
         <v>4</v>
       </c>
       <c r="I97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4707,15 +5201,15 @@
         <v>4</v>
       </c>
       <c r="I98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4742,15 +5236,15 @@
         <v>4</v>
       </c>
       <c r="I99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4777,15 +5271,15 @@
         <v>4</v>
       </c>
       <c r="I100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4957983193277311</v>
       </c>
       <c r="J100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2941176470588236</v>
       </c>
       <c r="K100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2941176470588236</v>
       </c>
     </row>
@@ -4812,15 +5306,15 @@
         <v>4</v>
       </c>
       <c r="I101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2946428571428572</v>
       </c>
       <c r="J101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2946428571428572</v>
       </c>
       <c r="K101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2946428571428572</v>
       </c>
     </row>
@@ -4847,15 +5341,15 @@
         <v>5</v>
       </c>
       <c r="I102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5048543689320388</v>
       </c>
       <c r="J102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.5048543689320388</v>
       </c>
       <c r="K102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1116504854368932</v>
       </c>
     </row>
@@ -4882,15 +5376,15 @@
         <v>5</v>
       </c>
       <c r="I103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0470588235294118</v>
       </c>
       <c r="J103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4917,15 +5411,15 @@
         <v>5</v>
       </c>
       <c r="I104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3248407643312101</v>
       </c>
       <c r="K104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.3248407643312101</v>
       </c>
     </row>
@@ -4952,15 +5446,15 @@
         <v>5</v>
       </c>
       <c r="I105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1386861313868613</v>
       </c>
       <c r="J105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1386861313868613</v>
       </c>
       <c r="K105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1386861313868613</v>
       </c>
     </row>
@@ -4987,15 +5481,15 @@
         <v>5</v>
       </c>
       <c r="I106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2341772151898733</v>
       </c>
       <c r="J106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2341772151898733</v>
       </c>
     </row>
@@ -5022,15 +5516,15 @@
         <v>5</v>
       </c>
       <c r="I107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.8617021276595744</v>
       </c>
       <c r="K107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.8617021276595744</v>
       </c>
     </row>
@@ -5057,15 +5551,15 @@
         <v>5</v>
       </c>
       <c r="I108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.6</v>
       </c>
       <c r="K108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5741935483870968</v>
       </c>
     </row>
@@ -5092,15 +5586,15 @@
         <v>5</v>
       </c>
       <c r="I109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1479591836734695</v>
       </c>
       <c r="J109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1479591836734695</v>
       </c>
       <c r="K109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.3265306122448979</v>
       </c>
     </row>
@@ -5127,15 +5621,15 @@
         <v>5</v>
       </c>
       <c r="I110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5162,15 +5656,15 @@
         <v>5</v>
       </c>
       <c r="I111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5197,15 +5691,15 @@
         <v>5</v>
       </c>
       <c r="I112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1416666666666666</v>
       </c>
       <c r="J112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1416666666666666</v>
       </c>
       <c r="K112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0833333333333333</v>
       </c>
     </row>
@@ -5232,15 +5726,15 @@
         <v>5</v>
       </c>
       <c r="I113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4197530864197532</v>
       </c>
       <c r="J113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2654320987654322</v>
       </c>
       <c r="K113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4197530864197532</v>
       </c>
     </row>
@@ -5267,15 +5761,15 @@
         <v>5</v>
       </c>
       <c r="I114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.3492063492063493</v>
       </c>
     </row>
@@ -5302,15 +5796,15 @@
         <v>5</v>
       </c>
       <c r="I115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6477272727272727</v>
       </c>
     </row>
@@ -5337,15 +5831,15 @@
         <v>5</v>
       </c>
       <c r="I116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.1166666666666667</v>
       </c>
     </row>
@@ -5372,15 +5866,15 @@
         <v>5</v>
       </c>
       <c r="I117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5407,15 +5901,15 @@
         <v>5</v>
       </c>
       <c r="I118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2043795620437956</v>
       </c>
     </row>
@@ -5442,15 +5936,15 @@
         <v>5</v>
       </c>
       <c r="I119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.303921568627451</v>
       </c>
     </row>
@@ -5477,15 +5971,15 @@
         <v>5</v>
       </c>
       <c r="I120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1014492753623188</v>
       </c>
       <c r="J120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1014492753623188</v>
       </c>
       <c r="K120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1014492753623188</v>
       </c>
     </row>
@@ -5512,15 +6006,15 @@
         <v>5</v>
       </c>
       <c r="I121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4225352112676057</v>
       </c>
       <c r="J121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4225352112676057</v>
       </c>
       <c r="K121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4225352112676057</v>
       </c>
     </row>
@@ -5547,15 +6041,15 @@
         <v>5</v>
       </c>
       <c r="I122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1324503311258278</v>
       </c>
       <c r="J122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1324503311258278</v>
       </c>
       <c r="K122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1324503311258278</v>
       </c>
     </row>
@@ -5582,15 +6076,15 @@
         <v>5</v>
       </c>
       <c r="I123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5617,15 +6111,15 @@
         <v>5</v>
       </c>
       <c r="I124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3006134969325154</v>
       </c>
       <c r="J124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3006134969325154</v>
       </c>
       <c r="K124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5705521472392638</v>
       </c>
     </row>
@@ -5652,15 +6146,15 @@
         <v>5</v>
       </c>
       <c r="I125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5687,15 +6181,15 @@
         <v>5</v>
       </c>
       <c r="I126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2214285714285715</v>
       </c>
       <c r="J126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2214285714285715</v>
       </c>
       <c r="K126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2214285714285715</v>
       </c>
     </row>
@@ -5722,15 +6216,15 @@
         <v>5</v>
       </c>
       <c r="I127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5757,15 +6251,15 @@
         <v>5</v>
       </c>
       <c r="I128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5792,15 +6286,15 @@
         <v>5</v>
       </c>
       <c r="I129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.7741935483870968</v>
       </c>
       <c r="K129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.7741935483870968</v>
       </c>
     </row>
@@ -5827,15 +6321,15 @@
         <v>5</v>
       </c>
       <c r="I130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4485981308411215</v>
       </c>
       <c r="J130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4392523364485981</v>
       </c>
       <c r="K130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4485981308411215</v>
       </c>
     </row>
@@ -5862,15 +6356,15 @@
         <v>5</v>
       </c>
       <c r="I131">
-        <f t="shared" ref="I131:I194" si="6">D131/C131</f>
+        <f t="shared" ref="I131:I194" si="9">D131/C131</f>
         <v>1</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J194" si="7">E131/C131</f>
+        <f t="shared" ref="J131:J194" si="10">E131/C131</f>
         <v>1</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K194" si="8">F131/C131</f>
+        <f t="shared" ref="K131:K194" si="11">F131/C131</f>
         <v>1</v>
       </c>
     </row>
@@ -5897,15 +6391,15 @@
         <v>5</v>
       </c>
       <c r="I132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0825242718446602</v>
       </c>
       <c r="J132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0825242718446602</v>
       </c>
       <c r="K132">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -5932,15 +6426,15 @@
         <v>5</v>
       </c>
       <c r="I133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2012578616352201</v>
       </c>
       <c r="J133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2012578616352201</v>
       </c>
       <c r="K133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2012578616352201</v>
       </c>
     </row>
@@ -5967,15 +6461,15 @@
         <v>5</v>
       </c>
       <c r="I134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2794117647058822</v>
       </c>
     </row>
@@ -6002,15 +6496,15 @@
         <v>5</v>
       </c>
       <c r="I135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K135">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4051724137931034</v>
       </c>
     </row>
@@ -6037,15 +6531,15 @@
         <v>5</v>
       </c>
       <c r="I136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.403225806451613</v>
       </c>
       <c r="J136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.403225806451613</v>
       </c>
       <c r="K136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.403225806451613</v>
       </c>
     </row>
@@ -6072,15 +6566,15 @@
         <v>5</v>
       </c>
       <c r="I137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.118421052631579</v>
       </c>
       <c r="J137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.118421052631579</v>
       </c>
       <c r="K137">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.118421052631579</v>
       </c>
     </row>
@@ -6107,15 +6601,15 @@
         <v>5</v>
       </c>
       <c r="I138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.6768292682926829</v>
       </c>
     </row>
@@ -6142,15 +6636,15 @@
         <v>5</v>
       </c>
       <c r="I139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -6177,15 +6671,15 @@
         <v>5</v>
       </c>
       <c r="I140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2666666666666666</v>
       </c>
       <c r="J140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2666666666666666</v>
       </c>
       <c r="K140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2666666666666666</v>
       </c>
     </row>
@@ -6212,15 +6706,15 @@
         <v>5</v>
       </c>
       <c r="I141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0942028985507246</v>
       </c>
       <c r="J141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0942028985507246</v>
       </c>
       <c r="K141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1231884057971016</v>
       </c>
     </row>
@@ -6247,15 +6741,15 @@
         <v>5</v>
       </c>
       <c r="I142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4903846153846154</v>
       </c>
       <c r="J142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4903846153846154</v>
       </c>
       <c r="K142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4903846153846154</v>
       </c>
     </row>
@@ -6282,15 +6776,15 @@
         <v>5</v>
       </c>
       <c r="I143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1741573033707866</v>
       </c>
     </row>
@@ -6317,15 +6811,15 @@
         <v>5</v>
       </c>
       <c r="I144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -6352,15 +6846,15 @@
         <v>5</v>
       </c>
       <c r="I145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.41875</v>
       </c>
     </row>
@@ -6387,15 +6881,15 @@
         <v>5</v>
       </c>
       <c r="I146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.6695652173913043</v>
       </c>
       <c r="J146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.5565217391304347</v>
       </c>
       <c r="K146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.6695652173913043</v>
       </c>
     </row>
@@ -6422,15 +6916,15 @@
         <v>5</v>
       </c>
       <c r="I147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0111111111111111</v>
       </c>
       <c r="J147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0111111111111111</v>
       </c>
       <c r="K147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0111111111111111</v>
       </c>
     </row>
@@ -6457,15 +6951,15 @@
         <v>5</v>
       </c>
       <c r="I148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.35</v>
       </c>
     </row>
@@ -6492,15 +6986,15 @@
         <v>5</v>
       </c>
       <c r="I149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0169491525423728</v>
       </c>
       <c r="J149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0169491525423728</v>
       </c>
       <c r="K149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0169491525423728</v>
       </c>
     </row>
@@ -6527,15 +7021,15 @@
         <v>5</v>
       </c>
       <c r="I150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4841269841269842</v>
       </c>
       <c r="K150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4841269841269842</v>
       </c>
     </row>
@@ -6562,15 +7056,15 @@
         <v>5</v>
       </c>
       <c r="I151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.325925925925926</v>
       </c>
     </row>
@@ -6597,15 +7091,15 @@
         <v>6</v>
       </c>
       <c r="I152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3296089385474861</v>
       </c>
       <c r="J152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2681564245810055</v>
       </c>
       <c r="K152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.223463687150838</v>
       </c>
     </row>
@@ -6632,15 +7126,15 @@
         <v>6</v>
       </c>
       <c r="I153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4155844155844155</v>
       </c>
       <c r="J153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1948051948051948</v>
       </c>
       <c r="K153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1948051948051948</v>
       </c>
     </row>
@@ -6667,15 +7161,15 @@
         <v>6</v>
       </c>
       <c r="I154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0264900662251655</v>
       </c>
       <c r="J154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3642384105960266</v>
       </c>
       <c r="K154">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2119205298013245</v>
       </c>
     </row>
@@ -6702,15 +7196,15 @@
         <v>6</v>
       </c>
       <c r="I155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1357142857142857</v>
       </c>
       <c r="J155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.6</v>
       </c>
       <c r="K155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
     </row>
@@ -6737,15 +7231,15 @@
         <v>6</v>
       </c>
       <c r="I156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0357142857142858</v>
       </c>
       <c r="J156">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4583333333333333</v>
       </c>
       <c r="K156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4583333333333333</v>
       </c>
     </row>
@@ -6772,15 +7266,15 @@
         <v>6</v>
       </c>
       <c r="I157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3076923076923077</v>
       </c>
       <c r="J157">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.6205128205128205</v>
       </c>
       <c r="K157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.6205128205128205</v>
       </c>
     </row>
@@ -6807,15 +7301,15 @@
         <v>6</v>
       </c>
       <c r="I158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.139240506329114</v>
       </c>
       <c r="J158">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2721518987341771</v>
       </c>
       <c r="K158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.120253164556962</v>
       </c>
     </row>
@@ -6842,15 +7336,15 @@
         <v>6</v>
       </c>
       <c r="I159">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J159">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3925233644859814</v>
       </c>
       <c r="K159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3925233644859814</v>
       </c>
     </row>
@@ -6877,15 +7371,15 @@
         <v>6</v>
       </c>
       <c r="I160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J160">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -6912,15 +7406,15 @@
         <v>6</v>
       </c>
       <c r="I161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0135135135135136</v>
       </c>
       <c r="J161">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0135135135135136</v>
       </c>
       <c r="K161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0135135135135136</v>
       </c>
     </row>
@@ -6947,15 +7441,15 @@
         <v>6</v>
       </c>
       <c r="I162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1578947368421053</v>
       </c>
       <c r="J162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.7894736842105263</v>
       </c>
       <c r="K162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.7894736842105263</v>
       </c>
     </row>
@@ -6982,15 +7476,15 @@
         <v>6</v>
       </c>
       <c r="I163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0662650602409638</v>
       </c>
       <c r="J163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1084337349397591</v>
       </c>
       <c r="K163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1024096385542168</v>
       </c>
     </row>
@@ -7017,15 +7511,15 @@
         <v>6</v>
       </c>
       <c r="I164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3405797101449275</v>
       </c>
       <c r="J164">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4855072463768115</v>
       </c>
       <c r="K164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4855072463768115</v>
       </c>
     </row>
@@ -7052,15 +7546,15 @@
         <v>6</v>
       </c>
       <c r="I165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0098039215686274</v>
       </c>
       <c r="J165">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2254901960784315</v>
       </c>
       <c r="K165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2254901960784315</v>
       </c>
     </row>
@@ -7087,15 +7581,15 @@
         <v>6</v>
       </c>
       <c r="I166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J166">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4630872483221478</v>
       </c>
       <c r="K166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3557046979865772</v>
       </c>
     </row>
@@ -7122,15 +7616,15 @@
         <v>6</v>
       </c>
       <c r="I167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4380165289256199</v>
       </c>
       <c r="J167">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2066115702479339</v>
       </c>
       <c r="K167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1487603305785123</v>
       </c>
     </row>
@@ -7157,15 +7651,15 @@
         <v>6</v>
       </c>
       <c r="I168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2824858757062148</v>
       </c>
       <c r="J168">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2542372881355932</v>
       </c>
       <c r="K168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2824858757062148</v>
       </c>
     </row>
@@ -7192,15 +7686,15 @@
         <v>6</v>
       </c>
       <c r="I169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J169">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0387096774193549</v>
       </c>
       <c r="K169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0387096774193549</v>
       </c>
     </row>
@@ -7227,15 +7721,15 @@
         <v>6</v>
       </c>
       <c r="I170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J170">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3571428571428572</v>
       </c>
       <c r="K170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3571428571428572</v>
       </c>
     </row>
@@ -7262,15 +7756,15 @@
         <v>6</v>
       </c>
       <c r="I171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1132075471698113</v>
       </c>
       <c r="J171">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4339622641509433</v>
       </c>
       <c r="K171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4339622641509433</v>
       </c>
     </row>
@@ -7297,15 +7791,15 @@
         <v>6</v>
       </c>
       <c r="I172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2877697841726619</v>
       </c>
       <c r="J172">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3741007194244603</v>
       </c>
       <c r="K172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3741007194244603</v>
       </c>
     </row>
@@ -7332,15 +7826,15 @@
         <v>6</v>
       </c>
       <c r="I173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J173">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2222222222222223</v>
       </c>
       <c r="K173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2222222222222223</v>
       </c>
     </row>
@@ -7367,15 +7861,15 @@
         <v>6</v>
       </c>
       <c r="I174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3404255319148937</v>
       </c>
       <c r="J174">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1595744680851063</v>
       </c>
       <c r="K174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1595744680851063</v>
       </c>
     </row>
@@ -7402,15 +7896,15 @@
         <v>6</v>
       </c>
       <c r="I175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J175">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4751773049645389</v>
       </c>
       <c r="K175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.553191489361702</v>
       </c>
     </row>
@@ -7437,15 +7931,15 @@
         <v>6</v>
       </c>
       <c r="I176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5593220338983051</v>
       </c>
       <c r="J176">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1271186440677967</v>
       </c>
       <c r="K176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1271186440677967</v>
       </c>
     </row>
@@ -7472,15 +7966,15 @@
         <v>6</v>
       </c>
       <c r="I177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3243243243243243</v>
       </c>
       <c r="J177">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3243243243243243</v>
       </c>
       <c r="K177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3243243243243243</v>
       </c>
     </row>
@@ -7507,15 +8001,15 @@
         <v>6</v>
       </c>
       <c r="I178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J178">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -7542,15 +8036,15 @@
         <v>6</v>
       </c>
       <c r="I179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0962962962962963</v>
       </c>
       <c r="J179">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0962962962962963</v>
       </c>
       <c r="K179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.9111111111111112</v>
       </c>
     </row>
@@ -7577,15 +8071,15 @@
         <v>6</v>
       </c>
       <c r="I180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J180">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.6788990825688073</v>
       </c>
       <c r="K180">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.6788990825688073</v>
       </c>
     </row>
@@ -7612,15 +8106,15 @@
         <v>6</v>
       </c>
       <c r="I181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J181">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.8992248062015504</v>
       </c>
       <c r="K181">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.8992248062015504</v>
       </c>
     </row>
@@ -7647,15 +8141,15 @@
         <v>6</v>
       </c>
       <c r="I182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3121387283236994</v>
       </c>
       <c r="J182">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.5202312138728324</v>
       </c>
       <c r="K182">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5202312138728324</v>
       </c>
     </row>
@@ -7682,15 +8176,15 @@
         <v>6</v>
       </c>
       <c r="I183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1277777777777778</v>
       </c>
       <c r="J183">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1277777777777778</v>
       </c>
       <c r="K183">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1277777777777778</v>
       </c>
     </row>
@@ -7717,15 +8211,15 @@
         <v>6</v>
       </c>
       <c r="I184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1275510204081634</v>
       </c>
       <c r="J184">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1275510204081634</v>
       </c>
       <c r="K184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3622448979591837</v>
       </c>
     </row>
@@ -7752,15 +8246,15 @@
         <v>6</v>
       </c>
       <c r="I185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2212389380530972</v>
       </c>
       <c r="J185">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3274336283185841</v>
       </c>
       <c r="K185">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3274336283185841</v>
       </c>
     </row>
@@ -7787,15 +8281,15 @@
         <v>6</v>
       </c>
       <c r="I186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0994152046783625</v>
       </c>
       <c r="J186">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.5380116959064327</v>
       </c>
       <c r="K186">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5380116959064327</v>
       </c>
     </row>
@@ -7822,15 +8316,15 @@
         <v>6</v>
       </c>
       <c r="I187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.240506329113924</v>
       </c>
       <c r="J187">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1329113924050633</v>
       </c>
       <c r="K187">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1329113924050633</v>
       </c>
     </row>
@@ -7857,15 +8351,15 @@
         <v>6</v>
       </c>
       <c r="I188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J188">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K188">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -7892,15 +8386,15 @@
         <v>6</v>
       </c>
       <c r="I189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J189">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K189">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -7927,15 +8421,15 @@
         <v>6</v>
       </c>
       <c r="I190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J190">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1055555555555556</v>
       </c>
       <c r="K190">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1055555555555556</v>
       </c>
     </row>
@@ -7962,15 +8456,15 @@
         <v>6</v>
       </c>
       <c r="I191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="J191">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3695652173913044</v>
       </c>
       <c r="K191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3695652173913044</v>
       </c>
     </row>
@@ -7997,15 +8491,15 @@
         <v>6</v>
       </c>
       <c r="I192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2857142857142858</v>
       </c>
       <c r="J192">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1746031746031746</v>
       </c>
       <c r="K192">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.246031746031746</v>
       </c>
     </row>
@@ -8032,15 +8526,15 @@
         <v>6</v>
       </c>
       <c r="I193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J193">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K193">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0963855421686748</v>
       </c>
     </row>
@@ -8067,15 +8561,15 @@
         <v>6</v>
       </c>
       <c r="I194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0254777070063694</v>
       </c>
       <c r="J194">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0254777070063694</v>
       </c>
       <c r="K194">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0254777070063694</v>
       </c>
     </row>
@@ -8102,15 +8596,15 @@
         <v>6</v>
       </c>
       <c r="I195">
-        <f t="shared" ref="I195:I258" si="9">D195/C195</f>
+        <f t="shared" ref="I195:I258" si="12">D195/C195</f>
         <v>1</v>
       </c>
       <c r="J195">
-        <f t="shared" ref="J195:J258" si="10">E195/C195</f>
+        <f t="shared" ref="J195:J258" si="13">E195/C195</f>
         <v>1.3594470046082949</v>
       </c>
       <c r="K195">
-        <f t="shared" ref="K195:K258" si="11">F195/C195</f>
+        <f t="shared" ref="K195:K258" si="14">F195/C195</f>
         <v>1.3594470046082949</v>
       </c>
     </row>
@@ -8137,15 +8631,15 @@
         <v>6</v>
       </c>
       <c r="I196">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0223463687150838</v>
       </c>
       <c r="J196">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1117318435754191</v>
       </c>
       <c r="K196">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1117318435754191</v>
       </c>
     </row>
@@ -8172,15 +8666,15 @@
         <v>6</v>
       </c>
       <c r="I197">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.6031746031746033</v>
       </c>
       <c r="J197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.6031746031746033</v>
       </c>
       <c r="K197">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.6031746031746033</v>
       </c>
     </row>
@@ -8207,15 +8701,15 @@
         <v>6</v>
       </c>
       <c r="I198">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.5503875968992249</v>
       </c>
       <c r="J198">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3100775193798451</v>
       </c>
       <c r="K198">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3100775193798451</v>
       </c>
     </row>
@@ -8242,15 +8736,15 @@
         <v>6</v>
       </c>
       <c r="I199">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0396039603960396</v>
       </c>
       <c r="J199">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0396039603960396</v>
       </c>
       <c r="K199">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0396039603960396</v>
       </c>
     </row>
@@ -8277,15 +8771,15 @@
         <v>6</v>
       </c>
       <c r="I200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4188034188034189</v>
       </c>
       <c r="J200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3717948717948718</v>
       </c>
       <c r="K200">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3846153846153846</v>
       </c>
     </row>
@@ -8312,15 +8806,15 @@
         <v>6</v>
       </c>
       <c r="I201">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J201">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4550264550264551</v>
       </c>
       <c r="K201">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4550264550264551</v>
       </c>
     </row>
@@ -8347,15 +8841,15 @@
         <v>7</v>
       </c>
       <c r="I202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4493670886075949</v>
       </c>
       <c r="J202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5949367088607596</v>
       </c>
       <c r="K202">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4303797468354431</v>
       </c>
     </row>
@@ -8382,15 +8876,15 @@
         <v>7</v>
       </c>
       <c r="I203">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2844827586206897</v>
       </c>
       <c r="J203">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1551724137931034</v>
       </c>
       <c r="K203">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1551724137931034</v>
       </c>
     </row>
@@ -8417,15 +8911,15 @@
         <v>7</v>
       </c>
       <c r="I204">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2216981132075471</v>
       </c>
       <c r="J204">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4245283018867925</v>
       </c>
       <c r="K204">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4245283018867925</v>
       </c>
     </row>
@@ -8452,15 +8946,15 @@
         <v>7</v>
       </c>
       <c r="I205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J205">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.8672566371681416</v>
       </c>
       <c r="K205">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.8672566371681416</v>
       </c>
     </row>
@@ -8487,15 +8981,15 @@
         <v>7</v>
       </c>
       <c r="I206">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2222222222222223</v>
       </c>
       <c r="J206">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0873015873015872</v>
       </c>
       <c r="K206">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0873015873015872</v>
       </c>
     </row>
@@ -8522,15 +9016,15 @@
         <v>7</v>
       </c>
       <c r="I207">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2060301507537687</v>
       </c>
       <c r="J207">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0904522613065326</v>
       </c>
       <c r="K207">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0904522613065326</v>
       </c>
     </row>
@@ -8557,15 +9051,15 @@
         <v>7</v>
       </c>
       <c r="I208">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3790322580645162</v>
       </c>
       <c r="J208">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2338709677419355</v>
       </c>
       <c r="K208">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2338709677419355</v>
       </c>
     </row>
@@ -8592,15 +9086,15 @@
         <v>7</v>
       </c>
       <c r="I209">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2264150943396226</v>
       </c>
       <c r="J209">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3584905660377358</v>
       </c>
       <c r="K209">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3679245283018868</v>
       </c>
     </row>
@@ -8627,15 +9121,15 @@
         <v>7</v>
       </c>
       <c r="I210">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1148325358851674</v>
       </c>
       <c r="J210">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2248803827751196</v>
       </c>
       <c r="K210">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2248803827751196</v>
       </c>
     </row>
@@ -8662,15 +9156,15 @@
         <v>7</v>
       </c>
       <c r="I211">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0346820809248556</v>
       </c>
       <c r="J211">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2485549132947977</v>
       </c>
       <c r="K211">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2485549132947977</v>
       </c>
     </row>
@@ -8697,15 +9191,15 @@
         <v>7</v>
       </c>
       <c r="I212">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.34</v>
       </c>
       <c r="J212">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5933333333333333</v>
       </c>
       <c r="K212">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.38</v>
       </c>
     </row>
@@ -8732,15 +9226,15 @@
         <v>7</v>
       </c>
       <c r="I213">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.423913043478261</v>
       </c>
       <c r="J213">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1793478260869565</v>
       </c>
       <c r="K213">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2119565217391304</v>
       </c>
     </row>
@@ -8767,15 +9261,15 @@
         <v>7</v>
       </c>
       <c r="I214">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3289473684210527</v>
       </c>
       <c r="J214">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2960526315789473</v>
       </c>
       <c r="K214">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2960526315789473</v>
       </c>
     </row>
@@ -8802,15 +9296,15 @@
         <v>7</v>
       </c>
       <c r="I215">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.390625</v>
       </c>
       <c r="J215">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.390625</v>
       </c>
       <c r="K215">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.390625</v>
       </c>
     </row>
@@ -8837,15 +9331,15 @@
         <v>7</v>
       </c>
       <c r="I216">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0136054421768708</v>
       </c>
       <c r="J216">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0136054421768708</v>
       </c>
       <c r="K216">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0136054421768708</v>
       </c>
     </row>
@@ -8872,15 +9366,15 @@
         <v>7</v>
       </c>
       <c r="I217">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1527777777777777</v>
       </c>
       <c r="J217">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4375</v>
       </c>
       <c r="K217">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4375</v>
       </c>
     </row>
@@ -8907,15 +9401,15 @@
         <v>7</v>
       </c>
       <c r="I218">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="J218">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4</v>
       </c>
       <c r="K218">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4</v>
       </c>
     </row>
@@ -8942,15 +9436,15 @@
         <v>7</v>
       </c>
       <c r="I219">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0507246376811594</v>
       </c>
       <c r="J219">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2898550724637681</v>
       </c>
       <c r="K219">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2898550724637681</v>
       </c>
     </row>
@@ -8977,15 +9471,15 @@
         <v>7</v>
       </c>
       <c r="I220">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3285714285714285</v>
       </c>
       <c r="J220">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.45</v>
       </c>
       <c r="K220">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1499999999999999</v>
       </c>
     </row>
@@ -9012,15 +9506,15 @@
         <v>7</v>
       </c>
       <c r="I221">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2138364779874213</v>
       </c>
       <c r="J221">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0377358490566038</v>
       </c>
       <c r="K221">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0377358490566038</v>
       </c>
     </row>
@@ -9047,15 +9541,15 @@
         <v>7</v>
       </c>
       <c r="I222">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.415929203539823</v>
       </c>
       <c r="J222">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.415929203539823</v>
       </c>
       <c r="K222">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.415929203539823</v>
       </c>
     </row>
@@ -9082,15 +9576,15 @@
         <v>7</v>
       </c>
       <c r="I223">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0402298850574712</v>
       </c>
       <c r="J223">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0747126436781609</v>
       </c>
       <c r="K223">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0747126436781609</v>
       </c>
     </row>
@@ -9117,15 +9611,15 @@
         <v>7</v>
       </c>
       <c r="I224">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J224">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1891891891891893</v>
       </c>
       <c r="K224">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1891891891891893</v>
       </c>
     </row>
@@ -9152,15 +9646,15 @@
         <v>7</v>
       </c>
       <c r="I225">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J225">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2024539877300613</v>
       </c>
       <c r="K225">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.165644171779141</v>
       </c>
     </row>
@@ -9187,15 +9681,15 @@
         <v>7</v>
       </c>
       <c r="I226">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J226">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1142857142857143</v>
       </c>
       <c r="K226">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0742857142857143</v>
       </c>
     </row>
@@ -9222,15 +9716,15 @@
         <v>7</v>
       </c>
       <c r="I227">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J227">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2620320855614973</v>
       </c>
       <c r="K227">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2620320855614973</v>
       </c>
     </row>
@@ -9257,15 +9751,15 @@
         <v>7</v>
       </c>
       <c r="I228">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.564625850340136</v>
       </c>
       <c r="J228">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4081632653061225</v>
       </c>
       <c r="K228">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4081632653061225</v>
       </c>
     </row>
@@ -9292,15 +9786,15 @@
         <v>7</v>
       </c>
       <c r="I229">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.125</v>
       </c>
       <c r="J229">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0815217391304348</v>
       </c>
       <c r="K229">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0815217391304348</v>
       </c>
     </row>
@@ -9327,15 +9821,15 @@
         <v>7</v>
       </c>
       <c r="I230">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J230">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K230">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.380281690140845</v>
       </c>
     </row>
@@ -9362,15 +9856,15 @@
         <v>7</v>
       </c>
       <c r="I231">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0621118012422359</v>
       </c>
       <c r="J231">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0621118012422359</v>
       </c>
       <c r="K231">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0621118012422359</v>
       </c>
     </row>
@@ -9397,15 +9891,15 @@
         <v>7</v>
       </c>
       <c r="I232">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J232">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="K232">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0526315789473684</v>
       </c>
     </row>
@@ -9432,15 +9926,15 @@
         <v>7</v>
       </c>
       <c r="I233">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J233">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K233">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -9467,15 +9961,15 @@
         <v>7</v>
       </c>
       <c r="I234">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1031746031746033</v>
       </c>
       <c r="J234">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0238095238095237</v>
       </c>
       <c r="K234">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0238095238095237</v>
       </c>
     </row>
@@ -9502,15 +9996,15 @@
         <v>7</v>
       </c>
       <c r="I235">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4835164835164836</v>
       </c>
       <c r="J235">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3736263736263736</v>
       </c>
       <c r="K235">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3736263736263736</v>
       </c>
     </row>
@@ -9537,15 +10031,15 @@
         <v>7</v>
       </c>
       <c r="I236">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J236">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5340909090909092</v>
       </c>
       <c r="K236">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5340909090909092</v>
       </c>
     </row>
@@ -9572,15 +10066,15 @@
         <v>7</v>
       </c>
       <c r="I237">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2429906542056075</v>
       </c>
       <c r="J237">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4672897196261683</v>
       </c>
       <c r="K237">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5420560747663552</v>
       </c>
     </row>
@@ -9607,15 +10101,15 @@
         <v>7</v>
       </c>
       <c r="I238">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J238">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K238">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -9642,15 +10136,15 @@
         <v>7</v>
       </c>
       <c r="I239">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J239">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K239">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -9677,15 +10171,15 @@
         <v>7</v>
       </c>
       <c r="I240">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.5842696629213484</v>
       </c>
       <c r="J240">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0112359550561798</v>
       </c>
       <c r="K240">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0112359550561798</v>
       </c>
     </row>
@@ -9712,15 +10206,15 @@
         <v>7</v>
       </c>
       <c r="I241">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0949367088607596</v>
       </c>
       <c r="J241">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2215189873417722</v>
       </c>
       <c r="K241">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2215189873417722</v>
       </c>
     </row>
@@ -9747,15 +10241,15 @@
         <v>7</v>
       </c>
       <c r="I242">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J242">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5955882352941178</v>
       </c>
       <c r="K242">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5955882352941178</v>
       </c>
     </row>
@@ -9782,15 +10276,15 @@
         <v>7</v>
       </c>
       <c r="I243">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1439999999999999</v>
       </c>
       <c r="J243">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0880000000000001</v>
       </c>
       <c r="K243">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0880000000000001</v>
       </c>
     </row>
@@ -9817,15 +10311,15 @@
         <v>7</v>
       </c>
       <c r="I244">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.28099173553719</v>
       </c>
       <c r="J244">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K244">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4462809917355373</v>
       </c>
     </row>
@@ -9852,15 +10346,15 @@
         <v>7</v>
       </c>
       <c r="I245">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.5079365079365079</v>
       </c>
       <c r="J245">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0793650793650793</v>
       </c>
       <c r="K245">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0793650793650793</v>
       </c>
     </row>
@@ -9887,15 +10381,15 @@
         <v>7</v>
       </c>
       <c r="I246">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.5684931506849316</v>
       </c>
       <c r="J246">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4863013698630136</v>
       </c>
       <c r="K246">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4863013698630136</v>
       </c>
     </row>
@@ -9922,15 +10416,15 @@
         <v>7</v>
       </c>
       <c r="I247">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2698412698412698</v>
       </c>
       <c r="J247">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2380952380952381</v>
       </c>
       <c r="K247">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2380952380952381</v>
       </c>
     </row>
@@ -9957,15 +10451,15 @@
         <v>7</v>
       </c>
       <c r="I248">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0502793296089385</v>
       </c>
       <c r="J248">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0502793296089385</v>
       </c>
       <c r="K248">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5195530726256983</v>
       </c>
     </row>
@@ -9992,15 +10486,15 @@
         <v>7</v>
       </c>
       <c r="I249">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.5930232558139534</v>
       </c>
       <c r="J249">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5930232558139534</v>
       </c>
       <c r="K249">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4941860465116279</v>
       </c>
     </row>
@@ -10027,15 +10521,15 @@
         <v>7</v>
       </c>
       <c r="I250">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1785714285714286</v>
       </c>
       <c r="J250">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.7142857142857142</v>
       </c>
       <c r="K250">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.7142857142857142</v>
       </c>
     </row>
@@ -10062,15 +10556,15 @@
         <v>7</v>
       </c>
       <c r="I251">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0510204081632653</v>
       </c>
       <c r="J251">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0510204081632653</v>
       </c>
       <c r="K251">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0510204081632653</v>
       </c>
     </row>
@@ -10097,15 +10591,15 @@
         <v>8</v>
       </c>
       <c r="I252">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4178403755868545</v>
       </c>
       <c r="J252">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2769953051643192</v>
       </c>
       <c r="K252">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.07981220657277</v>
       </c>
     </row>
@@ -10132,15 +10626,15 @@
         <v>8</v>
       </c>
       <c r="I253">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1439999999999999</v>
       </c>
       <c r="J253">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.504</v>
       </c>
       <c r="K253">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.504</v>
       </c>
     </row>
@@ -10167,15 +10661,15 @@
         <v>8</v>
       </c>
       <c r="I254">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2</v>
       </c>
       <c r="J254">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2</v>
       </c>
       <c r="K254">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0578947368421052</v>
       </c>
     </row>
@@ -10202,15 +10696,15 @@
         <v>8</v>
       </c>
       <c r="I255">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.7046979865771812</v>
       </c>
       <c r="J255">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5906040268456376</v>
       </c>
       <c r="K255">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5906040268456376</v>
       </c>
     </row>
@@ -10237,15 +10731,15 @@
         <v>8</v>
       </c>
       <c r="I256">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1741935483870967</v>
       </c>
       <c r="J256">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2774193548387096</v>
       </c>
       <c r="K256">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2774193548387096</v>
       </c>
     </row>
@@ -10272,15 +10766,15 @@
         <v>8</v>
       </c>
       <c r="I257">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0327868852459017</v>
       </c>
       <c r="J257">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1147540983606556</v>
       </c>
       <c r="K257">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1147540983606556</v>
       </c>
     </row>
@@ -10307,15 +10801,15 @@
         <v>8</v>
       </c>
       <c r="I258">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J258">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2430555555555556</v>
       </c>
       <c r="K258">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3055555555555556</v>
       </c>
     </row>
@@ -10342,15 +10836,15 @@
         <v>8</v>
       </c>
       <c r="I259">
-        <f t="shared" ref="I259:I322" si="12">D259/C259</f>
+        <f t="shared" ref="I259:I322" si="15">D259/C259</f>
         <v>1.5037593984962405</v>
       </c>
       <c r="J259">
-        <f t="shared" ref="J259:J322" si="13">E259/C259</f>
+        <f t="shared" ref="J259:J322" si="16">E259/C259</f>
         <v>1.3233082706766917</v>
       </c>
       <c r="K259">
-        <f t="shared" ref="K259:K322" si="14">F259/C259</f>
+        <f t="shared" ref="K259:K322" si="17">F259/C259</f>
         <v>1.3233082706766917</v>
       </c>
     </row>
@@ -10377,15 +10871,15 @@
         <v>8</v>
       </c>
       <c r="I260">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3111111111111111</v>
       </c>
       <c r="J260">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.4666666666666666</v>
       </c>
       <c r="K260">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4666666666666666</v>
       </c>
     </row>
@@ -10412,15 +10906,15 @@
         <v>8</v>
       </c>
       <c r="I261">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0866141732283465</v>
       </c>
       <c r="J261">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K261">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -10447,15 +10941,15 @@
         <v>8</v>
       </c>
       <c r="I262">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1901408450704225</v>
       </c>
       <c r="J262">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1338028169014085</v>
       </c>
       <c r="K262">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1338028169014085</v>
       </c>
     </row>
@@ -10482,15 +10976,15 @@
         <v>8</v>
       </c>
       <c r="I263">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5583333333333333</v>
       </c>
       <c r="J263">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2</v>
       </c>
       <c r="K263">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2</v>
       </c>
     </row>
@@ -10517,15 +11011,15 @@
         <v>8</v>
       </c>
       <c r="I264">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3757575757575757</v>
       </c>
       <c r="J264">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3757575757575757</v>
       </c>
       <c r="K264">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3636363636363635</v>
       </c>
     </row>
@@ -10552,15 +11046,15 @@
         <v>8</v>
       </c>
       <c r="I265">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2578125</v>
       </c>
       <c r="J265">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1015625</v>
       </c>
       <c r="K265">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1015625</v>
       </c>
     </row>
@@ -10587,15 +11081,15 @@
         <v>8</v>
       </c>
       <c r="I266">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2803030303030303</v>
       </c>
       <c r="J266">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5378787878787878</v>
       </c>
       <c r="K266">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5378787878787878</v>
       </c>
     </row>
@@ -10622,15 +11116,15 @@
         <v>8</v>
       </c>
       <c r="I267">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0147058823529411</v>
       </c>
       <c r="J267">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.7205882352941178</v>
       </c>
       <c r="K267">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.7205882352941178</v>
       </c>
     </row>
@@ -10657,15 +11151,15 @@
         <v>8</v>
       </c>
       <c r="I268">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2150537634408602</v>
       </c>
       <c r="J268">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1935483870967742</v>
       </c>
       <c r="K268">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1935483870967742</v>
       </c>
     </row>
@@ -10692,15 +11186,15 @@
         <v>8</v>
       </c>
       <c r="I269">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1511627906976745</v>
       </c>
       <c r="J269">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1279069767441861</v>
       </c>
       <c r="K269">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1279069767441861</v>
       </c>
     </row>
@@ -10727,15 +11221,15 @@
         <v>8</v>
       </c>
       <c r="I270">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3165467625899281</v>
       </c>
       <c r="J270">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1007194244604317</v>
       </c>
       <c r="K270">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1007194244604317</v>
       </c>
     </row>
@@ -10762,15 +11256,15 @@
         <v>8</v>
       </c>
       <c r="I271">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.323699421965318</v>
       </c>
       <c r="J271">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1676300578034682</v>
       </c>
       <c r="K271">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1676300578034682</v>
       </c>
     </row>
@@ -10797,15 +11291,15 @@
         <v>8</v>
       </c>
       <c r="I272">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0535714285714286</v>
       </c>
       <c r="J272">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K272">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -10832,15 +11326,15 @@
         <v>8</v>
       </c>
       <c r="I273">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3017751479289941</v>
       </c>
       <c r="J273">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3727810650887573</v>
       </c>
       <c r="K273">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3727810650887573</v>
       </c>
     </row>
@@ -10867,15 +11361,15 @@
         <v>8</v>
       </c>
       <c r="I274">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1618497109826589</v>
       </c>
       <c r="J274">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2369942196531791</v>
       </c>
       <c r="K274">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2369942196531791</v>
       </c>
     </row>
@@ -10902,15 +11396,15 @@
         <v>8</v>
       </c>
       <c r="I275">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3013698630136987</v>
       </c>
       <c r="J275">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5273972602739727</v>
       </c>
       <c r="K275">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5273972602739727</v>
       </c>
     </row>
@@ -10937,15 +11431,15 @@
         <v>8</v>
       </c>
       <c r="I276">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1019108280254777</v>
       </c>
       <c r="J276">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2229299363057324</v>
       </c>
       <c r="K276">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2229299363057324</v>
       </c>
     </row>
@@ -10972,15 +11466,15 @@
         <v>8</v>
       </c>
       <c r="I277">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J277">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K277">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -11007,15 +11501,15 @@
         <v>8</v>
       </c>
       <c r="I278">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.31055900621118</v>
       </c>
       <c r="J278">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1180124223602483</v>
       </c>
       <c r="K278">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1180124223602483</v>
       </c>
     </row>
@@ -11042,15 +11536,15 @@
         <v>8</v>
       </c>
       <c r="I279">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1736111111111112</v>
       </c>
       <c r="J279">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1736111111111112</v>
       </c>
       <c r="K279">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1736111111111112</v>
       </c>
     </row>
@@ -11077,15 +11571,15 @@
         <v>8</v>
       </c>
       <c r="I280">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2820512820512822</v>
       </c>
       <c r="J280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.6153846153846154</v>
       </c>
       <c r="K280">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.6153846153846154</v>
       </c>
     </row>
@@ -11112,15 +11606,15 @@
         <v>8</v>
       </c>
       <c r="I281">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.175</v>
       </c>
       <c r="J281">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K281">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -11147,15 +11641,15 @@
         <v>8</v>
       </c>
       <c r="I282">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1902173913043479</v>
       </c>
       <c r="J282">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2445652173913044</v>
       </c>
       <c r="K282">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2445652173913044</v>
       </c>
     </row>
@@ -11182,15 +11676,15 @@
         <v>8</v>
       </c>
       <c r="I283">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3495145631067962</v>
       </c>
       <c r="J283">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1893203883495145</v>
       </c>
       <c r="K283">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1262135922330097</v>
       </c>
     </row>
@@ -11217,15 +11711,15 @@
         <v>8</v>
       </c>
       <c r="I284">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4069767441860466</v>
       </c>
       <c r="J284">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.9767441860465116</v>
       </c>
       <c r="K284">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.9767441860465116</v>
       </c>
     </row>
@@ -11252,15 +11746,15 @@
         <v>8</v>
       </c>
       <c r="I285">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J285">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1382113821138211</v>
       </c>
       <c r="K285">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1382113821138211</v>
       </c>
     </row>
@@ -11287,15 +11781,15 @@
         <v>8</v>
       </c>
       <c r="I286">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J286">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K286">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -11322,15 +11816,15 @@
         <v>8</v>
       </c>
       <c r="I287">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4112903225806452</v>
       </c>
       <c r="J287">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1935483870967742</v>
       </c>
       <c r="K287">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1935483870967742</v>
       </c>
     </row>
@@ -11357,15 +11851,15 @@
         <v>8</v>
       </c>
       <c r="I288">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0048076923076923</v>
       </c>
       <c r="J288">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2740384615384615</v>
       </c>
       <c r="K288">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2259615384615385</v>
       </c>
     </row>
@@ -11392,15 +11886,15 @@
         <v>8</v>
       </c>
       <c r="I289">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.8734939759036144</v>
       </c>
       <c r="J289">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.7650602409638554</v>
       </c>
       <c r="K289">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.7650602409638554</v>
       </c>
     </row>
@@ -11427,15 +11921,15 @@
         <v>8</v>
       </c>
       <c r="I290">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J290">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.8859649122807018</v>
       </c>
       <c r="K290">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.8859649122807018</v>
       </c>
     </row>
@@ -11462,15 +11956,15 @@
         <v>8</v>
       </c>
       <c r="I291">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3179190751445087</v>
       </c>
       <c r="J291">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1445086705202312</v>
       </c>
       <c r="K291">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1445086705202312</v>
       </c>
     </row>
@@ -11497,15 +11991,15 @@
         <v>8</v>
       </c>
       <c r="I292">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1015625</v>
       </c>
       <c r="J292">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1015625</v>
       </c>
       <c r="K292">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0234375</v>
       </c>
     </row>
@@ -11532,15 +12026,15 @@
         <v>8</v>
       </c>
       <c r="I293">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.6433121019108281</v>
       </c>
       <c r="J293">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.197452229299363</v>
       </c>
       <c r="K293">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.197452229299363</v>
       </c>
     </row>
@@ -11567,15 +12061,15 @@
         <v>8</v>
       </c>
       <c r="I294">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4795321637426901</v>
       </c>
       <c r="J294">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0877192982456141</v>
       </c>
       <c r="K294">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4385964912280702</v>
       </c>
     </row>
@@ -11602,15 +12096,15 @@
         <v>8</v>
       </c>
       <c r="I295">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1857142857142857</v>
       </c>
       <c r="J295">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.138095238095238</v>
       </c>
       <c r="K295">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1285714285714286</v>
       </c>
     </row>
@@ -11637,15 +12131,15 @@
         <v>8</v>
       </c>
       <c r="I296">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2051282051282051</v>
       </c>
       <c r="J296">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2512820512820513</v>
       </c>
       <c r="K296">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2512820512820513</v>
       </c>
     </row>
@@ -11672,15 +12166,15 @@
         <v>8</v>
       </c>
       <c r="I297">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1989528795811519</v>
       </c>
       <c r="J297">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3769633507853403</v>
       </c>
       <c r="K297">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3769633507853403</v>
       </c>
     </row>
@@ -11707,15 +12201,15 @@
         <v>8</v>
       </c>
       <c r="I298">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.664179104477612</v>
       </c>
       <c r="J298">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2686567164179106</v>
       </c>
       <c r="K298">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2537313432835822</v>
       </c>
     </row>
@@ -11742,15 +12236,15 @@
         <v>8</v>
       </c>
       <c r="I299">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1021505376344085</v>
       </c>
       <c r="J299">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.118279569892473</v>
       </c>
       <c r="K299">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.118279569892473</v>
       </c>
     </row>
@@ -11777,15 +12271,15 @@
         <v>8</v>
       </c>
       <c r="I300">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3798882681564246</v>
       </c>
       <c r="J300">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0558659217877095</v>
       </c>
       <c r="K300">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0558659217877095</v>
       </c>
     </row>
@@ -11812,15 +12306,15 @@
         <v>8</v>
       </c>
       <c r="I301">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.072538860103627</v>
       </c>
       <c r="J301">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.072538860103627</v>
       </c>
       <c r="K301">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.072538860103627</v>
       </c>
     </row>
@@ -11847,15 +12341,15 @@
         <v>9</v>
       </c>
       <c r="I302">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J302">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3984962406015038</v>
       </c>
       <c r="K302">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.8571428571428572</v>
       </c>
     </row>
@@ -11882,15 +12376,15 @@
         <v>9</v>
       </c>
       <c r="I303">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1194968553459119</v>
       </c>
       <c r="J303">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1194968553459119</v>
       </c>
       <c r="K303">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -11917,15 +12411,15 @@
         <v>9</v>
       </c>
       <c r="I304">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1812080536912752</v>
       </c>
       <c r="J304">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1812080536912752</v>
       </c>
       <c r="K304">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2953020134228188</v>
       </c>
     </row>
@@ -11952,15 +12446,15 @@
         <v>9</v>
       </c>
       <c r="I305">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1052631578947369</v>
       </c>
       <c r="J305">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1052631578947369</v>
       </c>
       <c r="K305">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2932330827067668</v>
       </c>
     </row>
@@ -11987,15 +12481,15 @@
         <v>9</v>
       </c>
       <c r="I306">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0858895705521472</v>
       </c>
       <c r="J306">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2331288343558282</v>
       </c>
       <c r="K306">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.147239263803681</v>
       </c>
     </row>
@@ -12022,15 +12516,15 @@
         <v>9</v>
       </c>
       <c r="I307">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2642487046632125</v>
       </c>
       <c r="J307">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3005181347150259</v>
       </c>
       <c r="K307">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2590673575129534</v>
       </c>
     </row>
@@ -12057,15 +12551,15 @@
         <v>9</v>
       </c>
       <c r="I308">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3216783216783217</v>
       </c>
       <c r="J308">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1328671328671329</v>
       </c>
       <c r="K308">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5384615384615385</v>
       </c>
     </row>
@@ -12092,15 +12586,15 @@
         <v>9</v>
       </c>
       <c r="I309">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J309">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.4166666666666667</v>
       </c>
       <c r="K309">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4166666666666667</v>
       </c>
     </row>
@@ -12127,15 +12621,15 @@
         <v>9</v>
       </c>
       <c r="I310">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3062499999999999</v>
       </c>
       <c r="J310">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2</v>
       </c>
       <c r="K310">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4750000000000001</v>
       </c>
     </row>
@@ -12162,15 +12656,15 @@
         <v>9</v>
       </c>
       <c r="I311">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1647058823529413</v>
       </c>
       <c r="J311">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1647058823529413</v>
       </c>
       <c r="K311">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1647058823529413</v>
       </c>
     </row>
@@ -12197,15 +12691,15 @@
         <v>9</v>
       </c>
       <c r="I312">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2043795620437956</v>
       </c>
       <c r="J312">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2043795620437956</v>
       </c>
       <c r="K312">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2043795620437956</v>
       </c>
     </row>
@@ -12232,15 +12726,15 @@
         <v>9</v>
       </c>
       <c r="I313">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3935483870967742</v>
       </c>
       <c r="J313">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2193548387096773</v>
       </c>
       <c r="K313">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2129032258064516</v>
       </c>
     </row>
@@ -12267,15 +12761,15 @@
         <v>9</v>
       </c>
       <c r="I314">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1372549019607843</v>
       </c>
       <c r="J314">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.6797385620915033</v>
       </c>
       <c r="K314">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.34640522875817</v>
       </c>
     </row>
@@ -12302,15 +12796,15 @@
         <v>9</v>
       </c>
       <c r="I315">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0492957746478873</v>
       </c>
       <c r="J315">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0492957746478873</v>
       </c>
       <c r="K315">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0492957746478873</v>
       </c>
     </row>
@@ -12337,15 +12831,15 @@
         <v>9</v>
       </c>
       <c r="I316">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.108910891089109</v>
       </c>
       <c r="J316">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2722772277227723</v>
       </c>
       <c r="K316">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2277227722772277</v>
       </c>
     </row>
@@ -12372,15 +12866,15 @@
         <v>9</v>
       </c>
       <c r="I317">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.281767955801105</v>
       </c>
       <c r="J317">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.160220994475138</v>
       </c>
       <c r="K317">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1160220994475138</v>
       </c>
     </row>
@@ -12407,15 +12901,15 @@
         <v>9</v>
       </c>
       <c r="I318">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5263157894736843</v>
       </c>
       <c r="J318">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3233082706766917</v>
       </c>
       <c r="K318">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3984962406015038</v>
       </c>
     </row>
@@ -12442,15 +12936,15 @@
         <v>9</v>
       </c>
       <c r="I319">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3241758241758241</v>
       </c>
       <c r="J319">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2087912087912087</v>
       </c>
       <c r="K319">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2527472527472527</v>
       </c>
     </row>
@@ -12477,15 +12971,15 @@
         <v>9</v>
       </c>
       <c r="I320">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1955307262569832</v>
       </c>
       <c r="J320">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.4860335195530727</v>
       </c>
       <c r="K320">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3351955307262571</v>
       </c>
     </row>
@@ -12512,15 +13006,15 @@
         <v>9</v>
       </c>
       <c r="I321">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J321">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.6475409836065573</v>
       </c>
       <c r="K321">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5491803278688525</v>
       </c>
     </row>
@@ -12547,15 +13041,15 @@
         <v>9</v>
       </c>
       <c r="I322">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3254437869822486</v>
       </c>
       <c r="J322">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1065088757396451</v>
       </c>
       <c r="K322">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.455621301775148</v>
       </c>
     </row>
@@ -12582,15 +13076,15 @@
         <v>9</v>
       </c>
       <c r="I323">
-        <f t="shared" ref="I323:I386" si="15">D323/C323</f>
+        <f t="shared" ref="I323:I386" si="18">D323/C323</f>
         <v>1.5249999999999999</v>
       </c>
       <c r="J323">
-        <f t="shared" ref="J323:J386" si="16">E323/C323</f>
+        <f t="shared" ref="J323:J386" si="19">E323/C323</f>
         <v>1.5249999999999999</v>
       </c>
       <c r="K323">
-        <f t="shared" ref="K323:K386" si="17">F323/C323</f>
+        <f t="shared" ref="K323:K386" si="20">F323/C323</f>
         <v>1.9</v>
       </c>
     </row>
@@ -12617,15 +13111,15 @@
         <v>9</v>
       </c>
       <c r="I324">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4495412844036697</v>
       </c>
       <c r="J324">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4495412844036697</v>
       </c>
       <c r="K324">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.8532110091743119</v>
       </c>
     </row>
@@ -12652,15 +13146,15 @@
         <v>9</v>
       </c>
       <c r="I325">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1428571428571428</v>
       </c>
       <c r="J325">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3129251700680271</v>
       </c>
       <c r="K325">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5374149659863945</v>
       </c>
     </row>
@@ -12687,15 +13181,15 @@
         <v>9</v>
       </c>
       <c r="I326">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5823529411764705</v>
       </c>
       <c r="J326">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2117647058823529</v>
       </c>
       <c r="K326">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1882352941176471</v>
       </c>
     </row>
@@ -12722,15 +13216,15 @@
         <v>9</v>
       </c>
       <c r="I327">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3235294117647058</v>
       </c>
       <c r="J327">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3235294117647058</v>
       </c>
       <c r="K327">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2794117647058822</v>
       </c>
     </row>
@@ -12757,15 +13251,15 @@
         <v>9</v>
       </c>
       <c r="I328">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2424242424242424</v>
       </c>
       <c r="J328">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1515151515151516</v>
       </c>
       <c r="K328">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1515151515151516</v>
       </c>
     </row>
@@ -12792,15 +13286,15 @@
         <v>9</v>
       </c>
       <c r="I329">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0167597765363128</v>
       </c>
       <c r="J329">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.229050279329609</v>
       </c>
       <c r="K329">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3184357541899441</v>
       </c>
     </row>
@@ -12827,15 +13321,15 @@
         <v>9</v>
       </c>
       <c r="I330">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="J330">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4578947368421054</v>
       </c>
       <c r="K330">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4</v>
       </c>
     </row>
@@ -12862,15 +13356,15 @@
         <v>9</v>
       </c>
       <c r="I331">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5771428571428572</v>
       </c>
       <c r="J331">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.5428571428571429</v>
       </c>
       <c r="K331">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2457142857142858</v>
       </c>
     </row>
@@ -12897,15 +13391,15 @@
         <v>9</v>
       </c>
       <c r="I332">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J332">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3732394366197183</v>
       </c>
       <c r="K332">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3732394366197183</v>
       </c>
     </row>
@@ -12932,15 +13426,15 @@
         <v>9</v>
       </c>
       <c r="I333">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4567901234567902</v>
       </c>
       <c r="J333">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.8024691358024691</v>
       </c>
       <c r="K333">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.8024691358024691</v>
       </c>
     </row>
@@ -12967,15 +13461,15 @@
         <v>9</v>
       </c>
       <c r="I334">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.576086956521739</v>
       </c>
       <c r="J334">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.5652173913043479</v>
       </c>
       <c r="K334">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.25</v>
       </c>
     </row>
@@ -13002,15 +13496,15 @@
         <v>9</v>
       </c>
       <c r="I335">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5433070866141732</v>
       </c>
       <c r="J335">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2992125984251968</v>
       </c>
       <c r="K335">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.110236220472441</v>
       </c>
     </row>
@@ -13037,15 +13531,15 @@
         <v>9</v>
       </c>
       <c r="I336">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5828877005347595</v>
       </c>
       <c r="J336">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.588235294117647</v>
       </c>
       <c r="K336">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4973262032085561</v>
       </c>
     </row>
@@ -13072,15 +13566,15 @@
         <v>9</v>
       </c>
       <c r="I337">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.6</v>
       </c>
       <c r="J337">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.0756756756756756</v>
       </c>
       <c r="K337">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2864864864864864</v>
       </c>
     </row>
@@ -13107,15 +13601,15 @@
         <v>9</v>
       </c>
       <c r="I338">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0266666666666666</v>
       </c>
       <c r="J338">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.24</v>
       </c>
       <c r="K338">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.46</v>
       </c>
     </row>
@@ -13142,15 +13636,15 @@
         <v>9</v>
       </c>
       <c r="I339">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1338028169014085</v>
       </c>
       <c r="J339">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1338028169014085</v>
       </c>
       <c r="K339">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2253521126760563</v>
       </c>
     </row>
@@ -13177,15 +13671,15 @@
         <v>9</v>
       </c>
       <c r="I340">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.096938775510204</v>
       </c>
       <c r="J340">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1377551020408163</v>
       </c>
       <c r="K340">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2346938775510203</v>
       </c>
     </row>
@@ -13212,15 +13706,15 @@
         <v>9</v>
       </c>
       <c r="I341">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J341">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.7702702702702702</v>
       </c>
       <c r="K341">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.8513513513513513</v>
       </c>
     </row>
@@ -13247,15 +13741,15 @@
         <v>9</v>
       </c>
       <c r="I342">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.7794117647058822</v>
       </c>
       <c r="J342">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.786764705882353</v>
       </c>
       <c r="K342">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.7941176470588236</v>
       </c>
     </row>
@@ -13282,15 +13776,15 @@
         <v>9</v>
       </c>
       <c r="I343">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2077294685990339</v>
       </c>
       <c r="J343">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2077294685990339</v>
       </c>
       <c r="K343">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2946859903381642</v>
       </c>
     </row>
@@ -13317,15 +13811,15 @@
         <v>9</v>
       </c>
       <c r="I344">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5286624203821657</v>
       </c>
       <c r="J344">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4777070063694266</v>
       </c>
       <c r="K344">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4777070063694266</v>
       </c>
     </row>
@@ -13352,15 +13846,15 @@
         <v>9</v>
       </c>
       <c r="I345">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J345">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K345">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -13387,15 +13881,15 @@
         <v>9</v>
       </c>
       <c r="I346">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1920529801324504</v>
       </c>
       <c r="J346">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.5827814569536425</v>
       </c>
       <c r="K346">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5364238410596027</v>
       </c>
     </row>
@@ -13422,15 +13916,15 @@
         <v>9</v>
       </c>
       <c r="I347">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.625</v>
       </c>
       <c r="J347">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.5738636363636365</v>
       </c>
       <c r="K347">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.625</v>
       </c>
     </row>
@@ -13457,15 +13951,15 @@
         <v>9</v>
       </c>
       <c r="I348">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1842105263157894</v>
       </c>
       <c r="J348">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.013157894736842</v>
       </c>
       <c r="K348">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2105263157894737</v>
       </c>
     </row>
@@ -13492,15 +13986,15 @@
         <v>9</v>
       </c>
       <c r="I349">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0084033613445378</v>
       </c>
       <c r="J349">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.0084033613445378</v>
       </c>
       <c r="K349">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5630252100840336</v>
       </c>
     </row>
@@ -13527,15 +14021,15 @@
         <v>9</v>
       </c>
       <c r="I350">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J350">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K350">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.0072463768115942</v>
       </c>
     </row>
@@ -13562,15 +14056,15 @@
         <v>9</v>
       </c>
       <c r="I351">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1135135135135135</v>
       </c>
       <c r="J351">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.0540540540540539</v>
       </c>
       <c r="K351">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5459459459459459</v>
       </c>
     </row>
@@ -13597,15 +14091,15 @@
         <v>10</v>
       </c>
       <c r="I352">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1470588235294117</v>
       </c>
       <c r="J352">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1470588235294117</v>
       </c>
       <c r="K352">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.588235294117647</v>
       </c>
     </row>
@@ -13632,15 +14126,15 @@
         <v>10</v>
       </c>
       <c r="I353">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2485207100591715</v>
       </c>
       <c r="J353">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1479289940828403</v>
       </c>
       <c r="K353">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2485207100591715</v>
       </c>
     </row>
@@ -13667,15 +14161,15 @@
         <v>10</v>
       </c>
       <c r="I354">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3172043010752688</v>
       </c>
       <c r="J354">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.553763440860215</v>
       </c>
       <c r="K354">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6720430107526882</v>
       </c>
     </row>
@@ -13702,15 +14196,15 @@
         <v>10</v>
       </c>
       <c r="I355">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0384615384615385</v>
       </c>
       <c r="J355">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1461538461538461</v>
       </c>
       <c r="K355">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.8769230769230769</v>
       </c>
     </row>
@@ -13737,15 +14231,15 @@
         <v>10</v>
       </c>
       <c r="I356">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.172972972972973</v>
       </c>
       <c r="J356">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3675675675675676</v>
       </c>
       <c r="K356">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2972972972972974</v>
       </c>
     </row>
@@ -13772,15 +14266,15 @@
         <v>10</v>
       </c>
       <c r="I357">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2455089820359282</v>
       </c>
       <c r="J357">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3832335329341316</v>
       </c>
       <c r="K357">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.467065868263473</v>
       </c>
     </row>
@@ -13807,15 +14301,15 @@
         <v>10</v>
       </c>
       <c r="I358">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1686746987951808</v>
       </c>
       <c r="J358">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.0903614457831325</v>
       </c>
       <c r="K358">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6265060240963856</v>
       </c>
     </row>
@@ -13842,15 +14336,15 @@
         <v>10</v>
       </c>
       <c r="I359">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0487804878048781</v>
       </c>
       <c r="J359">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4390243902439024</v>
       </c>
       <c r="K359">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.2845528455284554</v>
       </c>
     </row>
@@ -13877,15 +14371,15 @@
         <v>10</v>
       </c>
       <c r="I360">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0789473684210527</v>
       </c>
       <c r="J360">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2105263157894737</v>
       </c>
       <c r="K360">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6973684210526316</v>
       </c>
     </row>
@@ -13912,15 +14406,15 @@
         <v>10</v>
       </c>
       <c r="I361">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1459854014598541</v>
       </c>
       <c r="J361">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.0072992700729928</v>
       </c>
       <c r="K361">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1459854014598541</v>
       </c>
     </row>
@@ -13947,15 +14441,15 @@
         <v>10</v>
       </c>
       <c r="I362">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3701657458563536</v>
       </c>
       <c r="J362">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3646408839779005</v>
       </c>
       <c r="K362">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2596685082872927</v>
       </c>
     </row>
@@ -13982,15 +14476,15 @@
         <v>10</v>
       </c>
       <c r="I363">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0266666666666666</v>
       </c>
       <c r="J363">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.0266666666666666</v>
       </c>
       <c r="K363">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1599999999999999</v>
       </c>
     </row>
@@ -14017,15 +14511,15 @@
         <v>10</v>
       </c>
       <c r="I364">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1176470588235294</v>
       </c>
       <c r="J364">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.7058823529411764</v>
       </c>
       <c r="K364">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.7058823529411764</v>
       </c>
     </row>
@@ -14052,15 +14546,15 @@
         <v>10</v>
       </c>
       <c r="I365">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2951807228915662</v>
       </c>
       <c r="J365">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1927710843373494</v>
       </c>
       <c r="K365">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2951807228915662</v>
       </c>
     </row>
@@ -14087,15 +14581,15 @@
         <v>10</v>
       </c>
       <c r="I366">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.6428571428571428</v>
       </c>
       <c r="J366">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.7337662337662338</v>
       </c>
       <c r="K366">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6493506493506493</v>
       </c>
     </row>
@@ -14122,15 +14616,15 @@
         <v>10</v>
       </c>
       <c r="I367">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.8863636363636365</v>
       </c>
       <c r="J367">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2045454545454546</v>
       </c>
       <c r="K367">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3068181818181819</v>
       </c>
     </row>
@@ -14157,15 +14651,15 @@
         <v>10</v>
       </c>
       <c r="I368">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.435483870967742</v>
       </c>
       <c r="J368">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.685483870967742</v>
       </c>
       <c r="K368">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2741935483870968</v>
       </c>
     </row>
@@ -14192,15 +14686,15 @@
         <v>10</v>
       </c>
       <c r="I369">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1419354838709677</v>
       </c>
       <c r="J369">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1419354838709677</v>
       </c>
       <c r="K369">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1419354838709677</v>
       </c>
     </row>
@@ -14227,15 +14721,15 @@
         <v>10</v>
       </c>
       <c r="I370">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1470588235294117</v>
       </c>
       <c r="J370">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1470588235294117</v>
       </c>
       <c r="K370">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.303921568627451</v>
       </c>
     </row>
@@ -14262,15 +14756,15 @@
         <v>10</v>
       </c>
       <c r="I371">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J371">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.7543859649122806</v>
       </c>
       <c r="K371">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.8333333333333333</v>
       </c>
     </row>
@@ -14297,15 +14791,15 @@
         <v>10</v>
       </c>
       <c r="I372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1492537313432836</v>
       </c>
       <c r="J372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2238805970149254</v>
       </c>
       <c r="K372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5970149253731343</v>
       </c>
     </row>
@@ -14332,15 +14826,15 @@
         <v>10</v>
       </c>
       <c r="I373">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3727810650887573</v>
       </c>
       <c r="J373">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4792899408284024</v>
       </c>
       <c r="K373">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6627218934911243</v>
       </c>
     </row>
@@ -14367,15 +14861,15 @@
         <v>10</v>
       </c>
       <c r="I374">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.248</v>
       </c>
       <c r="J374">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.944</v>
       </c>
       <c r="K374">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.944</v>
       </c>
     </row>
@@ -14402,15 +14896,15 @@
         <v>10</v>
       </c>
       <c r="I375">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4693877551020409</v>
       </c>
       <c r="J375">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2925170068027212</v>
       </c>
       <c r="K375">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.129251700680272</v>
       </c>
     </row>
@@ -14437,15 +14931,15 @@
         <v>10</v>
       </c>
       <c r="I376">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.265625</v>
       </c>
       <c r="J376">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.25</v>
       </c>
       <c r="K376">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.84375</v>
       </c>
     </row>
@@ -14472,15 +14966,15 @@
         <v>10</v>
       </c>
       <c r="I377">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2795031055900621</v>
       </c>
       <c r="J377">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2795031055900621</v>
       </c>
       <c r="K377">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4347826086956521</v>
       </c>
     </row>
@@ -14507,15 +15001,15 @@
         <v>10</v>
       </c>
       <c r="I378">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0927152317880795</v>
       </c>
       <c r="J378">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2384105960264902</v>
       </c>
       <c r="K378">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2384105960264902</v>
       </c>
     </row>
@@ -14542,15 +15036,15 @@
         <v>10</v>
       </c>
       <c r="I379">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0545454545454545</v>
       </c>
       <c r="J379">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.0272727272727273</v>
       </c>
       <c r="K379">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2.0272727272727273</v>
       </c>
     </row>
@@ -14577,15 +15071,15 @@
         <v>10</v>
       </c>
       <c r="I380">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.010752688172043</v>
       </c>
       <c r="J380">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2526881720430108</v>
       </c>
       <c r="K380">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2634408602150538</v>
       </c>
     </row>
@@ -14612,15 +15106,15 @@
         <v>10</v>
       </c>
       <c r="I381">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4415584415584415</v>
       </c>
       <c r="J381">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4415584415584415</v>
       </c>
       <c r="K381">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4415584415584415</v>
       </c>
     </row>
@@ -14647,15 +15141,15 @@
         <v>10</v>
       </c>
       <c r="I382">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1511627906976745</v>
       </c>
       <c r="J382">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.5872093023255813</v>
       </c>
       <c r="K382">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5872093023255813</v>
       </c>
     </row>
@@ -14682,15 +15176,15 @@
         <v>10</v>
       </c>
       <c r="I383">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4805194805194806</v>
       </c>
       <c r="J383">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.448051948051948</v>
       </c>
       <c r="K383">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5389610389610389</v>
       </c>
     </row>
@@ -14717,15 +15211,15 @@
         <v>10</v>
       </c>
       <c r="I384">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2935779816513762</v>
       </c>
       <c r="J384">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2.0458715596330275</v>
       </c>
       <c r="K384">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.871559633027523</v>
       </c>
     </row>
@@ -14752,15 +15246,15 @@
         <v>10</v>
       </c>
       <c r="I385">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2012578616352201</v>
       </c>
       <c r="J385">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3459119496855345</v>
       </c>
       <c r="K385">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6163522012578617</v>
       </c>
     </row>
@@ -14787,15 +15281,15 @@
         <v>10</v>
       </c>
       <c r="I386">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0789473684210527</v>
       </c>
       <c r="J386">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.756578947368421</v>
       </c>
       <c r="K386">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.881578947368421</v>
       </c>
     </row>
@@ -14822,15 +15316,15 @@
         <v>10</v>
       </c>
       <c r="I387">
-        <f t="shared" ref="I387:I450" si="18">D387/C387</f>
+        <f t="shared" ref="I387:I450" si="21">D387/C387</f>
         <v>1.2857142857142858</v>
       </c>
       <c r="J387">
-        <f t="shared" ref="J387:J451" si="19">E387/C387</f>
+        <f t="shared" ref="J387:J451" si="22">E387/C387</f>
         <v>1.1887755102040816</v>
       </c>
       <c r="K387">
-        <f t="shared" ref="K387:K450" si="20">F387/C387</f>
+        <f t="shared" ref="K387:K450" si="23">F387/C387</f>
         <v>1.1887755102040816</v>
       </c>
     </row>
@@ -14857,15 +15351,15 @@
         <v>10</v>
       </c>
       <c r="I388">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1358695652173914</v>
       </c>
       <c r="J388">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5108695652173914</v>
       </c>
       <c r="K388">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.8315217391304348</v>
       </c>
     </row>
@@ -14892,15 +15386,15 @@
         <v>10</v>
       </c>
       <c r="I389">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0890410958904109</v>
       </c>
       <c r="J389">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.678082191780822</v>
       </c>
       <c r="K389">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7054794520547945</v>
       </c>
     </row>
@@ -14927,15 +15421,15 @@
         <v>10</v>
       </c>
       <c r="I390">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4295302013422819</v>
       </c>
       <c r="J390">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3221476510067114</v>
       </c>
       <c r="K390">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3959731543624161</v>
       </c>
     </row>
@@ -14962,15 +15456,15 @@
         <v>10</v>
       </c>
       <c r="I391">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0486111111111112</v>
       </c>
       <c r="J391">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4027777777777777</v>
       </c>
       <c r="K391">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4027777777777777</v>
       </c>
     </row>
@@ -14997,15 +15491,15 @@
         <v>10</v>
       </c>
       <c r="I392">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2264150943396226</v>
       </c>
       <c r="J392">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5849056603773586</v>
       </c>
       <c r="K392">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5849056603773586</v>
       </c>
     </row>
@@ -15032,15 +15526,15 @@
         <v>10</v>
       </c>
       <c r="I393">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2794117647058822</v>
       </c>
       <c r="J393">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2794117647058822</v>
       </c>
       <c r="K393">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5514705882352942</v>
       </c>
     </row>
@@ -15067,15 +15561,15 @@
         <v>10</v>
       </c>
       <c r="I394">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.6636363636363636</v>
       </c>
       <c r="J394">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5454545454545454</v>
       </c>
       <c r="K394">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.290909090909091</v>
       </c>
     </row>
@@ -15102,15 +15596,15 @@
         <v>10</v>
       </c>
       <c r="I395">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1388888888888888</v>
       </c>
       <c r="J395">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5069444444444444</v>
       </c>
       <c r="K395">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.2430555555555554</v>
       </c>
     </row>
@@ -15137,15 +15631,15 @@
         <v>10</v>
       </c>
       <c r="I396">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2222222222222223</v>
       </c>
       <c r="J396">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5404040404040404</v>
       </c>
       <c r="K396">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4848484848484849</v>
       </c>
     </row>
@@ -15172,15 +15666,15 @@
         <v>10</v>
       </c>
       <c r="I397">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4430379746835442</v>
       </c>
       <c r="J397">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5379746835443038</v>
       </c>
       <c r="K397">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5759493670886076</v>
       </c>
     </row>
@@ -15207,15 +15701,15 @@
         <v>10</v>
       </c>
       <c r="I398">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2751677852348993</v>
       </c>
       <c r="J398">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2751677852348993</v>
       </c>
       <c r="K398">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5033557046979866</v>
       </c>
     </row>
@@ -15242,15 +15736,15 @@
         <v>10</v>
       </c>
       <c r="I399">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="J399">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.7302631578947369</v>
       </c>
       <c r="K399">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7302631578947369</v>
       </c>
     </row>
@@ -15277,15 +15771,15 @@
         <v>10</v>
       </c>
       <c r="I400">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2214765100671141</v>
       </c>
       <c r="J400">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.7718120805369129</v>
       </c>
       <c r="K400">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4228187919463087</v>
       </c>
     </row>
@@ -15312,15 +15806,15 @@
         <v>10</v>
       </c>
       <c r="I401">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.7727272727272727</v>
       </c>
       <c r="J401">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3787878787878789</v>
       </c>
       <c r="K401">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.196969696969697</v>
       </c>
     </row>
@@ -15347,15 +15841,15 @@
         <v>11</v>
       </c>
       <c r="I402">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2193548387096773</v>
       </c>
       <c r="J402">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6709677419354838</v>
       </c>
       <c r="K402">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5290322580645161</v>
       </c>
     </row>
@@ -15382,15 +15876,15 @@
         <v>11</v>
       </c>
       <c r="I403">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2051282051282051</v>
       </c>
       <c r="J403">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.0940170940170941</v>
       </c>
       <c r="K403">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.1538461538461537</v>
       </c>
     </row>
@@ -15417,15 +15911,15 @@
         <v>11</v>
       </c>
       <c r="I404">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5063291139240507</v>
       </c>
       <c r="J404">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.8481012658227849</v>
       </c>
       <c r="K404">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.8481012658227849</v>
       </c>
     </row>
@@ -15452,15 +15946,15 @@
         <v>11</v>
       </c>
       <c r="I405">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2105263157894737</v>
       </c>
       <c r="J405">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4385964912280702</v>
       </c>
       <c r="K405">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.8421052631578947</v>
       </c>
     </row>
@@ -15487,15 +15981,15 @@
         <v>11</v>
       </c>
       <c r="I406">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3108108108108107</v>
       </c>
       <c r="J406">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.1824324324324325</v>
       </c>
       <c r="K406">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7702702702702702</v>
       </c>
     </row>
@@ -15522,15 +16016,15 @@
         <v>11</v>
       </c>
       <c r="I407">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.138157894736842</v>
       </c>
       <c r="J407">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5263157894736843</v>
       </c>
       <c r="K407">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5723684210526316</v>
       </c>
     </row>
@@ -15557,15 +16051,15 @@
         <v>11</v>
       </c>
       <c r="I408">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.7234042553191489</v>
       </c>
       <c r="J408">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4361702127659575</v>
       </c>
       <c r="K408">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2819148936170213</v>
       </c>
     </row>
@@ -15592,15 +16086,15 @@
         <v>11</v>
       </c>
       <c r="I409">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1870503597122302</v>
       </c>
       <c r="J409">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.8417266187050361</v>
       </c>
       <c r="K409">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6978417266187051</v>
       </c>
     </row>
@@ -15627,15 +16121,15 @@
         <v>11</v>
       </c>
       <c r="I410">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.6836158192090396</v>
       </c>
       <c r="J410">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.655367231638418</v>
       </c>
       <c r="K410">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.655367231638418</v>
       </c>
     </row>
@@ -15662,15 +16156,15 @@
         <v>11</v>
       </c>
       <c r="I411">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3533834586466165</v>
       </c>
       <c r="J411">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5864661654135339</v>
       </c>
       <c r="K411">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5864661654135339</v>
       </c>
     </row>
@@ -15697,15 +16191,15 @@
         <v>11</v>
       </c>
       <c r="I412">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3537414965986394</v>
       </c>
       <c r="J412">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3945578231292517</v>
       </c>
       <c r="K412">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.1428571428571428</v>
       </c>
     </row>
@@ -15732,15 +16226,15 @@
         <v>11</v>
       </c>
       <c r="I413">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2635135135135136</v>
       </c>
       <c r="J413">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3040540540540539</v>
       </c>
       <c r="K413">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3040540540540539</v>
       </c>
     </row>
@@ -15767,15 +16261,15 @@
         <v>11</v>
       </c>
       <c r="I414">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0677083333333333</v>
       </c>
       <c r="J414">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4791666666666667</v>
       </c>
       <c r="K414">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.296875</v>
       </c>
     </row>
@@ -15802,15 +16296,15 @@
         <v>11</v>
       </c>
       <c r="I415">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3070175438596492</v>
       </c>
       <c r="J415">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6228070175438596</v>
       </c>
       <c r="K415">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.8070175438596492</v>
       </c>
     </row>
@@ -15837,15 +16331,15 @@
         <v>11</v>
       </c>
       <c r="I416">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2925531914893618</v>
       </c>
       <c r="J416">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5478723404255319</v>
       </c>
       <c r="K416">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5478723404255319</v>
       </c>
     </row>
@@ -15872,15 +16366,15 @@
         <v>11</v>
       </c>
       <c r="I417">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1952662721893492</v>
       </c>
       <c r="J417">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3254437869822486</v>
       </c>
       <c r="K417">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3727810650887573</v>
       </c>
     </row>
@@ -15907,15 +16401,15 @@
         <v>11</v>
       </c>
       <c r="I418">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1946308724832215</v>
       </c>
       <c r="J418">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.912751677852349</v>
       </c>
       <c r="K418">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.912751677852349</v>
       </c>
     </row>
@@ -15942,15 +16436,15 @@
         <v>11</v>
       </c>
       <c r="I419">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.489795918367347</v>
       </c>
       <c r="J419">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.9795918367346939</v>
       </c>
       <c r="K419">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.9795918367346939</v>
       </c>
     </row>
@@ -15977,15 +16471,15 @@
         <v>11</v>
       </c>
       <c r="I420">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2341772151898733</v>
       </c>
       <c r="J420">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.8291139240506329</v>
       </c>
       <c r="K420">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.8291139240506329</v>
       </c>
     </row>
@@ -16012,15 +16506,15 @@
         <v>11</v>
       </c>
       <c r="I421">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4214876033057851</v>
       </c>
       <c r="J421">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6694214876033058</v>
       </c>
       <c r="K421">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6694214876033058</v>
       </c>
     </row>
@@ -16047,15 +16541,15 @@
         <v>11</v>
       </c>
       <c r="I422">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0496894409937889</v>
       </c>
       <c r="J422">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2981366459627328</v>
       </c>
       <c r="K422">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6335403726708075</v>
       </c>
     </row>
@@ -16082,15 +16576,15 @@
         <v>11</v>
       </c>
       <c r="I423">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1521739130434783</v>
       </c>
       <c r="J423">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.463768115942029</v>
       </c>
       <c r="K423">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4420289855072463</v>
       </c>
     </row>
@@ -16117,15 +16611,15 @@
         <v>11</v>
       </c>
       <c r="I424">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0689655172413792</v>
       </c>
       <c r="J424">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.8482758620689654</v>
       </c>
       <c r="K424">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6</v>
       </c>
     </row>
@@ -16152,15 +16646,15 @@
         <v>11</v>
       </c>
       <c r="I425">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2136752136752136</v>
       </c>
       <c r="J425">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.8717948717948718</v>
       </c>
       <c r="K425">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4615384615384615</v>
       </c>
     </row>
@@ -16187,15 +16681,15 @@
         <v>11</v>
       </c>
       <c r="I426">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3961038961038961</v>
       </c>
       <c r="J426">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.1623376623376624</v>
       </c>
       <c r="K426">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7337662337662338</v>
       </c>
     </row>
@@ -16222,15 +16716,15 @@
         <v>11</v>
       </c>
       <c r="I427">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1181818181818182</v>
       </c>
       <c r="J427">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.0909090909090908</v>
       </c>
       <c r="K427">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.0909090909090908</v>
       </c>
     </row>
@@ -16257,15 +16751,15 @@
         <v>11</v>
       </c>
       <c r="I428">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4693877551020409</v>
       </c>
       <c r="J428">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3877551020408163</v>
       </c>
       <c r="K428">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5918367346938775</v>
       </c>
     </row>
@@ -16292,15 +16786,15 @@
         <v>11</v>
       </c>
       <c r="I429">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0960451977401129</v>
       </c>
       <c r="J429">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6101694915254237</v>
       </c>
       <c r="K429">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.8135593220338984</v>
       </c>
     </row>
@@ -16327,15 +16821,15 @@
         <v>11</v>
       </c>
       <c r="I430">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.7073170731707317</v>
       </c>
       <c r="J430">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4451219512195121</v>
       </c>
       <c r="K430">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4451219512195121</v>
       </c>
     </row>
@@ -16362,15 +16856,15 @@
         <v>11</v>
       </c>
       <c r="I431">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2549019607843137</v>
       </c>
       <c r="J431">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2875816993464053</v>
       </c>
       <c r="K431">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4313725490196079</v>
       </c>
     </row>
@@ -16397,15 +16891,15 @@
         <v>11</v>
       </c>
       <c r="I432">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.275229357798165</v>
       </c>
       <c r="J432">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.1009174311926606</v>
       </c>
       <c r="K432">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.2018348623853212</v>
       </c>
     </row>
@@ -16432,15 +16926,15 @@
         <v>11</v>
       </c>
       <c r="I433">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2619047619047619</v>
       </c>
       <c r="J433">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2797619047619047</v>
       </c>
       <c r="K433">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6964285714285714</v>
       </c>
     </row>
@@ -16467,15 +16961,15 @@
         <v>11</v>
       </c>
       <c r="I434">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1721311475409837</v>
       </c>
       <c r="J434">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6967213114754098</v>
       </c>
       <c r="K434">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6311475409836065</v>
       </c>
     </row>
@@ -16502,15 +16996,15 @@
         <v>11</v>
       </c>
       <c r="I435">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4806201550387597</v>
       </c>
       <c r="J435">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5968992248062015</v>
       </c>
       <c r="K435">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3875968992248062</v>
       </c>
     </row>
@@ -16537,15 +17031,15 @@
         <v>11</v>
       </c>
       <c r="I436">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0695652173913044</v>
       </c>
       <c r="J436">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.2260869565217392</v>
       </c>
       <c r="K436">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2.008695652173913</v>
       </c>
     </row>
@@ -16572,15 +17066,15 @@
         <v>11</v>
       </c>
       <c r="I437">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1832460732984293</v>
       </c>
       <c r="J437">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3717277486910995</v>
       </c>
       <c r="K437">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.1989528795811519</v>
       </c>
     </row>
@@ -16607,15 +17101,15 @@
         <v>11</v>
       </c>
       <c r="I438">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3287671232876712</v>
       </c>
       <c r="J438">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4657534246575343</v>
       </c>
       <c r="K438">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2671232876712328</v>
       </c>
     </row>
@@ -16642,15 +17136,15 @@
         <v>11</v>
       </c>
       <c r="I439">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2348484848484849</v>
       </c>
       <c r="J439">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6742424242424243</v>
       </c>
       <c r="K439">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6742424242424243</v>
       </c>
     </row>
@@ -16677,15 +17171,15 @@
         <v>11</v>
       </c>
       <c r="I440">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.217687074829932</v>
       </c>
       <c r="J440">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.7414965986394557</v>
       </c>
       <c r="K440">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7414965986394557</v>
       </c>
     </row>
@@ -16712,15 +17206,15 @@
         <v>11</v>
       </c>
       <c r="I441">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0817610062893082</v>
       </c>
       <c r="J441">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4150943396226414</v>
       </c>
       <c r="K441">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.1635220125786163</v>
       </c>
     </row>
@@ -16747,15 +17241,15 @@
         <v>11</v>
       </c>
       <c r="I442">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.8895027624309393</v>
       </c>
       <c r="J442">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4696132596685083</v>
       </c>
       <c r="K442">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4585635359116023</v>
       </c>
     </row>
@@ -16782,15 +17276,15 @@
         <v>11</v>
       </c>
       <c r="I443">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3653846153846154</v>
       </c>
       <c r="J443">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6634615384615385</v>
       </c>
       <c r="K443">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7980769230769231</v>
       </c>
     </row>
@@ -16817,15 +17311,15 @@
         <v>11</v>
       </c>
       <c r="I444">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1210191082802548</v>
       </c>
       <c r="J444">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3885350318471337</v>
       </c>
       <c r="K444">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4331210191082802</v>
       </c>
     </row>
@@ -16852,15 +17346,15 @@
         <v>11</v>
       </c>
       <c r="I445">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.6341463414634145</v>
       </c>
       <c r="J445">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.7195121951219512</v>
       </c>
       <c r="K445">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4634146341463414</v>
       </c>
     </row>
@@ -16887,15 +17381,15 @@
         <v>11</v>
       </c>
       <c r="I446">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1262135922330097</v>
       </c>
       <c r="J446">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.9611650485436893</v>
       </c>
       <c r="K446">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3592233009708738</v>
       </c>
     </row>
@@ -16922,15 +17416,15 @@
         <v>11</v>
       </c>
       <c r="I447">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="J447">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.725609756097561</v>
       </c>
       <c r="K447">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.524390243902439</v>
       </c>
     </row>
@@ -16957,15 +17451,15 @@
         <v>11</v>
       </c>
       <c r="I448">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2721518987341771</v>
       </c>
       <c r="J448">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3544303797468353</v>
       </c>
       <c r="K448">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.8860759493670887</v>
       </c>
     </row>
@@ -16992,15 +17486,15 @@
         <v>11</v>
       </c>
       <c r="I449">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5616438356164384</v>
       </c>
       <c r="J449">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4109589041095891</v>
       </c>
       <c r="K449">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3835616438356164</v>
       </c>
     </row>
@@ -17027,15 +17521,15 @@
         <v>11</v>
       </c>
       <c r="I450">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.536764705882353</v>
       </c>
       <c r="J450">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.7279411764705883</v>
       </c>
       <c r="K450">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.9705882352941178</v>
       </c>
     </row>
@@ -17062,15 +17556,15 @@
         <v>11</v>
       </c>
       <c r="I451">
-        <f t="shared" ref="I451" si="21">D451/C451</f>
+        <f t="shared" ref="I451" si="24">D451/C451</f>
         <v>1.5</v>
       </c>
       <c r="J451">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5743243243243243</v>
       </c>
       <c r="K451">
-        <f t="shared" ref="K451" si="22">F451/C451</f>
+        <f t="shared" ref="K451" si="25">F451/C451</f>
         <v>1.9189189189189189</v>
       </c>
     </row>

--- a/LP-Ergebnisse-Normal.xlsx
+++ b/LP-Ergebnisse-Normal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\IdeaProjects\F\Frezze_Tag_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D9564C-0A48-4938-9A6F-61F01FA57C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C068EE-44A5-4FD9-A360-DE350CBE1ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -218,7 +218,39 @@
                 <a:uFillTx/>
                 <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
               </a:rPr>
-              <a:t>Vergleich FTP-Algorithmen in LP - Normaldaten</a:t>
+              <a:t>Vergleich FTP-Algorithmen in L</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>∞</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="0" lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+              </a:rPr>
+              <a:t> - Normaldaten</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE" sz="1400">
               <a:effectLst/>
@@ -1312,7 +1344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
